--- a/Calibration Results and Graphs/General RPD/Objective Function/ILS Proposed.xlsx
+++ b/Calibration Results and Graphs/General RPD/Objective Function/ILS Proposed.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kruskal Wallis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>5-50-2</t>
   </si>
@@ -438,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13842,4 +13843,5815 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S181"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:AH181"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="28" max="28" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1.3571949489999999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1.1086705130000001</v>
+      </c>
+      <c r="F2">
+        <v>1.921516268</v>
+      </c>
+      <c r="H2">
+        <v>1.7495186920000001</v>
+      </c>
+      <c r="J2">
+        <v>1.3952804089999999</v>
+      </c>
+      <c r="L2">
+        <v>1.6423019910000001</v>
+      </c>
+      <c r="N2">
+        <v>0.61905680900000004</v>
+      </c>
+      <c r="P2">
+        <v>0.947311554</v>
+      </c>
+      <c r="R2">
+        <v>1.442541182</v>
+      </c>
+      <c r="S2">
+        <v>1.634313141</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.64154389899999997</v>
+      </c>
+      <c r="D3">
+        <v>0.39274711000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.63533077500000001</v>
+      </c>
+      <c r="H3">
+        <v>0.59397466799999998</v>
+      </c>
+      <c r="J3">
+        <v>8.9624315999999996E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.14748403400000001</v>
+      </c>
+      <c r="N3">
+        <v>0.17241419499999999</v>
+      </c>
+      <c r="P3">
+        <v>0.24009841600000001</v>
+      </c>
+      <c r="R3">
+        <v>0.39896023400000002</v>
+      </c>
+      <c r="S3">
+        <v>0.27357162200000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.6880026809999999</v>
+      </c>
+      <c r="D4">
+        <v>1.542315331</v>
+      </c>
+      <c r="F4">
+        <v>1.48981674</v>
+      </c>
+      <c r="H4">
+        <v>1.333938045</v>
+      </c>
+      <c r="J4">
+        <v>1.3374730500000001</v>
+      </c>
+      <c r="L4">
+        <v>0.73419053499999998</v>
+      </c>
+      <c r="N4">
+        <v>1.515238694</v>
+      </c>
+      <c r="P4">
+        <v>0.96543253600000001</v>
+      </c>
+      <c r="R4">
+        <v>0.57221959600000005</v>
+      </c>
+      <c r="S4">
+        <v>1.313780993</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.206117257</v>
+      </c>
+      <c r="D5">
+        <v>0.66031222499999997</v>
+      </c>
+      <c r="F5">
+        <v>0.81237106800000003</v>
+      </c>
+      <c r="H5">
+        <v>0.99328424199999998</v>
+      </c>
+      <c r="J5">
+        <v>0.29469657399999999</v>
+      </c>
+      <c r="L5">
+        <v>0.52650461400000004</v>
+      </c>
+      <c r="N5">
+        <v>0.62672995600000003</v>
+      </c>
+      <c r="P5">
+        <v>0.35219664899999997</v>
+      </c>
+      <c r="R5">
+        <v>0.43757765500000001</v>
+      </c>
+      <c r="S5">
+        <v>0.57753853799999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.522048085</v>
+      </c>
+      <c r="D6">
+        <v>0.43724700799999999</v>
+      </c>
+      <c r="F6">
+        <v>0.66458107799999999</v>
+      </c>
+      <c r="H6">
+        <v>0.87777512599999996</v>
+      </c>
+      <c r="J6">
+        <v>0.45021520599999998</v>
+      </c>
+      <c r="L6">
+        <v>0.144407914</v>
+      </c>
+      <c r="N6">
+        <v>0.43877038000000002</v>
+      </c>
+      <c r="P6">
+        <v>0.48654178399999998</v>
+      </c>
+      <c r="R6">
+        <v>0.57888160200000005</v>
+      </c>
+      <c r="S6">
+        <v>0.42287261999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.475666123</v>
+      </c>
+      <c r="D7">
+        <v>0.18856620700000001</v>
+      </c>
+      <c r="F7">
+        <v>0.29017909400000003</v>
+      </c>
+      <c r="H7">
+        <v>0.37642955900000002</v>
+      </c>
+      <c r="J7">
+        <v>0.21939146100000001</v>
+      </c>
+      <c r="L7">
+        <v>8.5848832E-2</v>
+      </c>
+      <c r="N7">
+        <v>6.1416221E-2</v>
+      </c>
+      <c r="P7">
+        <v>0.238602856</v>
+      </c>
+      <c r="R7">
+        <v>0.17728704300000001</v>
+      </c>
+      <c r="S7">
+        <v>0.29938315999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7.1685663970000002</v>
+      </c>
+      <c r="D8">
+        <v>5.9425741280000004</v>
+      </c>
+      <c r="F8">
+        <v>3.9606996190000001</v>
+      </c>
+      <c r="H8">
+        <v>4.9221984489999997</v>
+      </c>
+      <c r="J8">
+        <v>1.6082729179999999</v>
+      </c>
+      <c r="L8">
+        <v>1.4250744339999999</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.172175411</v>
+      </c>
+      <c r="R8">
+        <v>4.5873677830000004</v>
+      </c>
+      <c r="S8">
+        <v>2.3383525540000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.55589054400000004</v>
+      </c>
+      <c r="D9">
+        <v>0.77154255400000005</v>
+      </c>
+      <c r="F9">
+        <v>0.286205814</v>
+      </c>
+      <c r="H9">
+        <v>0.59926836299999997</v>
+      </c>
+      <c r="J9">
+        <v>0.78012234400000002</v>
+      </c>
+      <c r="L9">
+        <v>0.28684430999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.33289583099999998</v>
+      </c>
+      <c r="P9">
+        <v>0.27387486</v>
+      </c>
+      <c r="R9">
+        <v>0.62712274999999995</v>
+      </c>
+      <c r="S9">
+        <v>0.69851457900000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.320210157</v>
+      </c>
+      <c r="D10">
+        <v>0.13392726199999999</v>
+      </c>
+      <c r="F10">
+        <v>0.47095339899999999</v>
+      </c>
+      <c r="H10">
+        <v>0.67634857299999995</v>
+      </c>
+      <c r="J10">
+        <v>3.3561303000000001E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.11410843</v>
+      </c>
+      <c r="N10">
+        <v>0.290252279</v>
+      </c>
+      <c r="P10">
+        <v>0.23849721700000001</v>
+      </c>
+      <c r="R10">
+        <v>0.14452556899999999</v>
+      </c>
+      <c r="S10">
+        <v>0.16003442300000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.120813135</v>
+      </c>
+      <c r="D11">
+        <v>5.0199265E-2</v>
+      </c>
+      <c r="F11">
+        <v>8.5470572999999994E-2</v>
+      </c>
+      <c r="H11">
+        <v>7.4212256000000004E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.6008136000000001E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.8134440000000002E-2</v>
+      </c>
+      <c r="N11">
+        <v>6.5875402E-2</v>
+      </c>
+      <c r="P11">
+        <v>3.1281018000000001E-2</v>
+      </c>
+      <c r="R11">
+        <v>4.1007348999999998E-2</v>
+      </c>
+      <c r="S11">
+        <v>4.3145004000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.28429082300000003</v>
+      </c>
+      <c r="D12">
+        <v>0.19008113900000001</v>
+      </c>
+      <c r="F12">
+        <v>0.10427618600000001</v>
+      </c>
+      <c r="H12">
+        <v>0.17253666300000001</v>
+      </c>
+      <c r="J12">
+        <v>0.22056826199999999</v>
+      </c>
+      <c r="L12">
+        <v>9.3091182999999994E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.14933577100000001</v>
+      </c>
+      <c r="P12">
+        <v>0.16285364599999999</v>
+      </c>
+      <c r="R12">
+        <v>0.155088058</v>
+      </c>
+      <c r="S12">
+        <v>9.7149741999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.31752607500000002</v>
+      </c>
+      <c r="D13">
+        <v>0.46561253400000002</v>
+      </c>
+      <c r="F13">
+        <v>0.21971368999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.395193301</v>
+      </c>
+      <c r="J13">
+        <v>0.143929521</v>
+      </c>
+      <c r="L13">
+        <v>0.12527659599999999</v>
+      </c>
+      <c r="N13">
+        <v>0.29865997399999999</v>
+      </c>
+      <c r="P13">
+        <v>0.34328487600000002</v>
+      </c>
+      <c r="R13">
+        <v>0.43875232199999997</v>
+      </c>
+      <c r="S13">
+        <v>0.148690458</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.98067791299999996</v>
+      </c>
+      <c r="D14">
+        <v>0.70562783900000003</v>
+      </c>
+      <c r="F14">
+        <v>0.47942306200000001</v>
+      </c>
+      <c r="H14">
+        <v>0.55067166099999998</v>
+      </c>
+      <c r="J14">
+        <v>0.83006523200000004</v>
+      </c>
+      <c r="L14">
+        <v>0.25820949599999998</v>
+      </c>
+      <c r="N14">
+        <v>0.44181751699999999</v>
+      </c>
+      <c r="P14">
+        <v>0.222394692</v>
+      </c>
+      <c r="R14">
+        <v>0.89350315599999997</v>
+      </c>
+      <c r="S14">
+        <v>0.56305443899999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3.4869467890000001</v>
+      </c>
+      <c r="D15">
+        <v>2.163067082</v>
+      </c>
+      <c r="F15">
+        <v>3.4010414510000002</v>
+      </c>
+      <c r="H15">
+        <v>4.3096482470000002</v>
+      </c>
+      <c r="J15">
+        <v>3.5338216400000002</v>
+      </c>
+      <c r="L15">
+        <v>2.6628103859999999</v>
+      </c>
+      <c r="N15">
+        <v>2.6848447549999999</v>
+      </c>
+      <c r="P15">
+        <v>2.7471213419999998</v>
+      </c>
+      <c r="R15">
+        <v>3.7394013410000002</v>
+      </c>
+      <c r="S15">
+        <v>2.8123315930000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1.434334969</v>
+      </c>
+      <c r="D16">
+        <v>1.2543005810000001</v>
+      </c>
+      <c r="F16">
+        <v>1.525909443</v>
+      </c>
+      <c r="H16">
+        <v>1.2720567810000001</v>
+      </c>
+      <c r="J16">
+        <v>0.97469661100000005</v>
+      </c>
+      <c r="L16">
+        <v>0.50465498200000003</v>
+      </c>
+      <c r="N16">
+        <v>1.0806558559999999</v>
+      </c>
+      <c r="P16">
+        <v>1.0083466990000001</v>
+      </c>
+      <c r="R16">
+        <v>0.82555094799999995</v>
+      </c>
+      <c r="S16">
+        <v>1.0798852430000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.62461105400000005</v>
+      </c>
+      <c r="D17">
+        <v>0.56719165299999996</v>
+      </c>
+      <c r="F17">
+        <v>0.86764702199999999</v>
+      </c>
+      <c r="H17">
+        <v>0.800029302</v>
+      </c>
+      <c r="J17">
+        <v>0.202063148</v>
+      </c>
+      <c r="L17">
+        <v>0.27140452700000001</v>
+      </c>
+      <c r="N17">
+        <v>0.31356236199999998</v>
+      </c>
+      <c r="P17">
+        <v>0.29984490699999999</v>
+      </c>
+      <c r="R17">
+        <v>0.41428870499999998</v>
+      </c>
+      <c r="S17">
+        <v>0.23966046799999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.359631688</v>
+      </c>
+      <c r="D18">
+        <v>0.34280292099999998</v>
+      </c>
+      <c r="F18">
+        <v>0.36833130400000003</v>
+      </c>
+      <c r="H18">
+        <v>0.479762458</v>
+      </c>
+      <c r="J18">
+        <v>0.153122758</v>
+      </c>
+      <c r="L18">
+        <v>0.12307818099999999</v>
+      </c>
+      <c r="N18">
+        <v>0.249008695</v>
+      </c>
+      <c r="P18">
+        <v>0.126643598</v>
+      </c>
+      <c r="R18">
+        <v>0.36923454300000003</v>
+      </c>
+      <c r="S18">
+        <v>0.46003381900000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.53418977099999998</v>
+      </c>
+      <c r="D19">
+        <v>0.156619808</v>
+      </c>
+      <c r="F19">
+        <v>0.31994492699999999</v>
+      </c>
+      <c r="H19">
+        <v>0.136260046</v>
+      </c>
+      <c r="J19">
+        <v>0.32128598899999999</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>7.4286717000000002E-2</v>
+      </c>
+      <c r="P19">
+        <v>0.11854177</v>
+      </c>
+      <c r="R19">
+        <v>0.24525182700000001</v>
+      </c>
+      <c r="S19">
+        <v>0.39065547900000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1.287181999</v>
+      </c>
+      <c r="D20">
+        <v>0.46211457900000003</v>
+      </c>
+      <c r="F20">
+        <v>0.89425099900000005</v>
+      </c>
+      <c r="H20">
+        <v>0.66657564700000005</v>
+      </c>
+      <c r="J20">
+        <v>0.52432552300000002</v>
+      </c>
+      <c r="L20">
+        <v>0.131478028</v>
+      </c>
+      <c r="N20">
+        <v>0.24508606599999999</v>
+      </c>
+      <c r="P20">
+        <v>7.5822196999999994E-2</v>
+      </c>
+      <c r="R20">
+        <v>1.329936365</v>
+      </c>
+      <c r="S20">
+        <v>0.396104175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.21109972599999999</v>
+      </c>
+      <c r="D21">
+        <v>0.331183106</v>
+      </c>
+      <c r="F21">
+        <v>0.61024601599999995</v>
+      </c>
+      <c r="H21">
+        <v>0.57794572099999997</v>
+      </c>
+      <c r="J21">
+        <v>0.34266118899999998</v>
+      </c>
+      <c r="L21">
+        <v>0.16754767700000001</v>
+      </c>
+      <c r="N21">
+        <v>0.31550178099999998</v>
+      </c>
+      <c r="P21">
+        <v>0.31317383199999999</v>
+      </c>
+      <c r="R21">
+        <v>0.23764481400000001</v>
+      </c>
+      <c r="S21">
+        <v>0.43005628099999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.33574593200000002</v>
+      </c>
+      <c r="D22">
+        <v>0.110636571</v>
+      </c>
+      <c r="F22">
+        <v>0.63800166700000005</v>
+      </c>
+      <c r="H22">
+        <v>0.75972491200000003</v>
+      </c>
+      <c r="J22">
+        <v>5.4896301000000002E-2</v>
+      </c>
+      <c r="L22">
+        <v>5.0216113E-2</v>
+      </c>
+      <c r="N22">
+        <v>0.64245168200000002</v>
+      </c>
+      <c r="P22">
+        <v>0.43387642700000001</v>
+      </c>
+      <c r="R22">
+        <v>0.61897401799999996</v>
+      </c>
+      <c r="S22">
+        <v>0.65771983599999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5.4943118999999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.107456919</v>
+      </c>
+      <c r="F23">
+        <v>0.29637703399999998</v>
+      </c>
+      <c r="H23">
+        <v>0.47456765200000001</v>
+      </c>
+      <c r="J23">
+        <v>7.9114852999999999E-2</v>
+      </c>
+      <c r="L23">
+        <v>0.113611196</v>
+      </c>
+      <c r="N23">
+        <v>0.42067723800000001</v>
+      </c>
+      <c r="P23">
+        <v>0.42565734399999999</v>
+      </c>
+      <c r="R23">
+        <v>6.4660398999999993E-2</v>
+      </c>
+      <c r="S23">
+        <v>0.29135643900000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.22095978999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.91995265199999998</v>
+      </c>
+      <c r="F24">
+        <v>0.36609836699999998</v>
+      </c>
+      <c r="H24">
+        <v>1.273488317</v>
+      </c>
+      <c r="J24">
+        <v>7.1781979999999995E-2</v>
+      </c>
+      <c r="L24">
+        <v>0.23225595299999999</v>
+      </c>
+      <c r="N24">
+        <v>0.22003555899999999</v>
+      </c>
+      <c r="P24">
+        <v>0.284902918</v>
+      </c>
+      <c r="R24">
+        <v>0.241600961</v>
+      </c>
+      <c r="S24">
+        <v>0.17194129</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1.760368597</v>
+      </c>
+      <c r="D25">
+        <v>1.2697666970000001</v>
+      </c>
+      <c r="F25">
+        <v>1.4355493850000001</v>
+      </c>
+      <c r="H25">
+        <v>1.497752489</v>
+      </c>
+      <c r="J25">
+        <v>0.90530079100000005</v>
+      </c>
+      <c r="L25">
+        <v>0.903674792</v>
+      </c>
+      <c r="N25">
+        <v>0.41130851000000002</v>
+      </c>
+      <c r="P25">
+        <v>0.36716437200000002</v>
+      </c>
+      <c r="R25">
+        <v>1.5449410509999999</v>
+      </c>
+      <c r="S25">
+        <v>0.67918316700000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.48546758600000001</v>
+      </c>
+      <c r="D26">
+        <v>0.40639732699999997</v>
+      </c>
+      <c r="F26">
+        <v>0.56145090600000003</v>
+      </c>
+      <c r="H26">
+        <v>1.01192079</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1.6736414000000002E-2</v>
+      </c>
+      <c r="N26">
+        <v>0.119758341</v>
+      </c>
+      <c r="P26">
+        <v>0.21694111899999999</v>
+      </c>
+      <c r="R26">
+        <v>0.43031180299999999</v>
+      </c>
+      <c r="S26">
+        <v>0.34101373600000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1.962561322</v>
+      </c>
+      <c r="D27">
+        <v>2.3518002920000001</v>
+      </c>
+      <c r="F27">
+        <v>2.7261258929999999</v>
+      </c>
+      <c r="H27">
+        <v>2.4484695250000001</v>
+      </c>
+      <c r="J27">
+        <v>0.53688133900000001</v>
+      </c>
+      <c r="L27">
+        <v>0.20951373600000001</v>
+      </c>
+      <c r="N27">
+        <v>1.225343705</v>
+      </c>
+      <c r="P27">
+        <v>0.51539078999999999</v>
+      </c>
+      <c r="R27">
+        <v>1.313523789</v>
+      </c>
+      <c r="S27">
+        <v>2.0805299060000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1.1809581090000001</v>
+      </c>
+      <c r="D28">
+        <v>0.25749191900000001</v>
+      </c>
+      <c r="F28">
+        <v>0.408560062</v>
+      </c>
+      <c r="H28">
+        <v>0.68244877999999998</v>
+      </c>
+      <c r="J28">
+        <v>0.43937205699999998</v>
+      </c>
+      <c r="L28">
+        <v>0.21603366099999999</v>
+      </c>
+      <c r="N28">
+        <v>3.7145355999999997E-2</v>
+      </c>
+      <c r="P28">
+        <v>0.27773536100000001</v>
+      </c>
+      <c r="R28">
+        <v>0.280610629</v>
+      </c>
+      <c r="S28">
+        <v>0.36686867400000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.44378501999999997</v>
+      </c>
+      <c r="D29">
+        <v>0.27094074099999998</v>
+      </c>
+      <c r="F29">
+        <v>0.36035681200000003</v>
+      </c>
+      <c r="H29">
+        <v>0.44985325700000001</v>
+      </c>
+      <c r="J29">
+        <v>4.5612242999999997E-2</v>
+      </c>
+      <c r="L29">
+        <v>0.15106292599999999</v>
+      </c>
+      <c r="N29">
+        <v>6.3616017999999996E-2</v>
+      </c>
+      <c r="P29">
+        <v>0.20820883700000001</v>
+      </c>
+      <c r="R29">
+        <v>0.39118024000000001</v>
+      </c>
+      <c r="S29">
+        <v>0.39656529800000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.39458660200000001</v>
+      </c>
+      <c r="D30">
+        <v>0.34566163</v>
+      </c>
+      <c r="F30">
+        <v>0.49536987199999999</v>
+      </c>
+      <c r="H30">
+        <v>0.36597762499999997</v>
+      </c>
+      <c r="J30">
+        <v>0.173500772</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0.23205864000000001</v>
+      </c>
+      <c r="P30">
+        <v>0.37626237099999998</v>
+      </c>
+      <c r="R30">
+        <v>0.73322273599999999</v>
+      </c>
+      <c r="S30">
+        <v>0.49475423600000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.33056787199999998</v>
+      </c>
+      <c r="D31">
+        <v>0.21232509399999999</v>
+      </c>
+      <c r="F31">
+        <v>0.52710916399999996</v>
+      </c>
+      <c r="H31">
+        <v>0.56026678100000005</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0.134569511</v>
+      </c>
+      <c r="N31">
+        <v>0.24486221699999999</v>
+      </c>
+      <c r="P31">
+        <v>0.239704366</v>
+      </c>
+      <c r="R31">
+        <v>0.165865648</v>
+      </c>
+      <c r="S31">
+        <v>0.23256869199999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.28314737699999998</v>
+      </c>
+      <c r="D32">
+        <v>0.219701177</v>
+      </c>
+      <c r="F32">
+        <v>0.320416741</v>
+      </c>
+      <c r="H32">
+        <v>0.41341743199999997</v>
+      </c>
+      <c r="J32">
+        <v>0.24403565399999999</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>5.8264568000000003E-2</v>
+      </c>
+      <c r="P32">
+        <v>0.13633448300000001</v>
+      </c>
+      <c r="R32">
+        <v>0.20204524800000001</v>
+      </c>
+      <c r="S32">
+        <v>0.16009322300000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.42951958499999998</v>
+      </c>
+      <c r="D33">
+        <v>0.53133978800000004</v>
+      </c>
+      <c r="F33">
+        <v>0.55410986600000001</v>
+      </c>
+      <c r="H33">
+        <v>0.77664943600000003</v>
+      </c>
+      <c r="J33">
+        <v>0.13502656699999999</v>
+      </c>
+      <c r="L33">
+        <v>0.21491159300000001</v>
+      </c>
+      <c r="N33">
+        <v>0.42196750900000002</v>
+      </c>
+      <c r="P33">
+        <v>0.34477694199999998</v>
+      </c>
+      <c r="R33">
+        <v>0.56078908900000002</v>
+      </c>
+      <c r="S33">
+        <v>0.48978439400000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.188720464</v>
+      </c>
+      <c r="D34">
+        <v>0.18321910699999999</v>
+      </c>
+      <c r="F34">
+        <v>0.39155310500000001</v>
+      </c>
+      <c r="H34">
+        <v>0.35842536800000002</v>
+      </c>
+      <c r="J34">
+        <v>5.6648031000000001E-2</v>
+      </c>
+      <c r="L34">
+        <v>0.151127858</v>
+      </c>
+      <c r="N34">
+        <v>0.248119174</v>
+      </c>
+      <c r="P34">
+        <v>0.286469213</v>
+      </c>
+      <c r="R34">
+        <v>0.17707991200000001</v>
+      </c>
+      <c r="S34">
+        <v>0.15937989299999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.24135637200000001</v>
+      </c>
+      <c r="D35">
+        <v>0.33883500999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.37218781499999998</v>
+      </c>
+      <c r="H35">
+        <v>0.39334196900000001</v>
+      </c>
+      <c r="J35">
+        <v>0.12548762399999999</v>
+      </c>
+      <c r="L35">
+        <v>6.4199541999999998E-2</v>
+      </c>
+      <c r="N35">
+        <v>0.31016265500000001</v>
+      </c>
+      <c r="P35">
+        <v>8.4174370999999998E-2</v>
+      </c>
+      <c r="R35">
+        <v>0.15611323699999999</v>
+      </c>
+      <c r="S35">
+        <v>0.115057962</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.62751014999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.77614768000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.54894320399999996</v>
+      </c>
+      <c r="H36">
+        <v>0.79113839100000005</v>
+      </c>
+      <c r="J36">
+        <v>0.198639117</v>
+      </c>
+      <c r="L36">
+        <v>0.16221218000000001</v>
+      </c>
+      <c r="N36">
+        <v>0.35308737800000001</v>
+      </c>
+      <c r="P36">
+        <v>0.50231086400000002</v>
+      </c>
+      <c r="R36">
+        <v>0.25952972099999999</v>
+      </c>
+      <c r="S36">
+        <v>0.55284957800000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.30927588099999997</v>
+      </c>
+      <c r="D37">
+        <v>7.1479754000000006E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.39262782699999998</v>
+      </c>
+      <c r="H37">
+        <v>0.626654445</v>
+      </c>
+      <c r="J37">
+        <v>8.2048470999999998E-2</v>
+      </c>
+      <c r="L37">
+        <v>2.0679455999999999E-2</v>
+      </c>
+      <c r="N37">
+        <v>0.196401986</v>
+      </c>
+      <c r="P37">
+        <v>0.195098511</v>
+      </c>
+      <c r="R37">
+        <v>4.4599985000000002E-2</v>
+      </c>
+      <c r="S37">
+        <v>0.208415094</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2.1188775999999999E-2</v>
+      </c>
+      <c r="D38">
+        <v>1.8937468999999998E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.102831781</v>
+      </c>
+      <c r="H38">
+        <v>0.12964882599999999</v>
+      </c>
+      <c r="J38">
+        <v>1.2613943000000001E-2</v>
+      </c>
+      <c r="L38">
+        <v>7.6478240000000001E-3</v>
+      </c>
+      <c r="N38">
+        <v>1.8473963999999999E-2</v>
+      </c>
+      <c r="P38">
+        <v>1.3176770000000001E-2</v>
+      </c>
+      <c r="R38">
+        <v>1.0627496E-2</v>
+      </c>
+      <c r="S38">
+        <v>1.456728E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.68450638399999997</v>
+      </c>
+      <c r="D39">
+        <v>0.24213604799999999</v>
+      </c>
+      <c r="F39">
+        <v>0.39300140700000002</v>
+      </c>
+      <c r="H39">
+        <v>0.20503800899999999</v>
+      </c>
+      <c r="J39">
+        <v>0.26515585699999999</v>
+      </c>
+      <c r="L39">
+        <v>0.16437285099999999</v>
+      </c>
+      <c r="N39">
+        <v>4.6657918999999999E-2</v>
+      </c>
+      <c r="P39">
+        <v>4.3281045999999997E-2</v>
+      </c>
+      <c r="R39">
+        <v>0.46129984899999998</v>
+      </c>
+      <c r="S39">
+        <v>9.4552438000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.32999674299999998</v>
+      </c>
+      <c r="D40">
+        <v>0.280728649</v>
+      </c>
+      <c r="F40">
+        <v>0.30685501300000001</v>
+      </c>
+      <c r="H40">
+        <v>0.45600021800000001</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0.20351745600000001</v>
+      </c>
+      <c r="N40">
+        <v>0.11951514000000001</v>
+      </c>
+      <c r="P40">
+        <v>0.36667746600000001</v>
+      </c>
+      <c r="R40">
+        <v>0.210568114</v>
+      </c>
+      <c r="S40">
+        <v>0.24902231599999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.27695116199999997</v>
+      </c>
+      <c r="D41">
+        <v>0.27435068200000001</v>
+      </c>
+      <c r="F41">
+        <v>0.52447355399999995</v>
+      </c>
+      <c r="H41">
+        <v>0.70499023500000002</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>7.2900134000000005E-2</v>
+      </c>
+      <c r="N41">
+        <v>0.249082681</v>
+      </c>
+      <c r="P41">
+        <v>0.318428824</v>
+      </c>
+      <c r="R41">
+        <v>7.3506912999999993E-2</v>
+      </c>
+      <c r="S41">
+        <v>0.175792475</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.38668656099999998</v>
+      </c>
+      <c r="D42">
+        <v>0.35868274700000002</v>
+      </c>
+      <c r="F42">
+        <v>0.36941639599999998</v>
+      </c>
+      <c r="H42">
+        <v>0.96210643699999998</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>5.7934179000000002E-2</v>
+      </c>
+      <c r="N42">
+        <v>0.33676821499999998</v>
+      </c>
+      <c r="P42">
+        <v>0.56169319200000001</v>
+      </c>
+      <c r="R42">
+        <v>0.72603498</v>
+      </c>
+      <c r="S42">
+        <v>0.46120285</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.37638622700000002</v>
+      </c>
+      <c r="D43">
+        <v>0.60839111999999995</v>
+      </c>
+      <c r="F43">
+        <v>0.74222517300000002</v>
+      </c>
+      <c r="H43">
+        <v>0.90840657000000002</v>
+      </c>
+      <c r="J43">
+        <v>0.54704757299999995</v>
+      </c>
+      <c r="L43">
+        <v>0.23934213200000001</v>
+      </c>
+      <c r="N43">
+        <v>0.45818938100000001</v>
+      </c>
+      <c r="P43">
+        <v>0.59498655</v>
+      </c>
+      <c r="R43">
+        <v>0.50595198200000002</v>
+      </c>
+      <c r="S43">
+        <v>0.624723531</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.19232574299999999</v>
+      </c>
+      <c r="D44">
+        <v>0.168460782</v>
+      </c>
+      <c r="F44">
+        <v>0.380471318</v>
+      </c>
+      <c r="H44">
+        <v>0.29451185699999999</v>
+      </c>
+      <c r="J44">
+        <v>0.109748418</v>
+      </c>
+      <c r="L44">
+        <v>0.11104047</v>
+      </c>
+      <c r="N44">
+        <v>0.16359658599999999</v>
+      </c>
+      <c r="P44">
+        <v>0.219952855</v>
+      </c>
+      <c r="R44">
+        <v>0.28782358800000002</v>
+      </c>
+      <c r="S44">
+        <v>0.25282417899999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.220777152</v>
+      </c>
+      <c r="D45">
+        <v>0.32554928799999999</v>
+      </c>
+      <c r="F45">
+        <v>0.33751741099999999</v>
+      </c>
+      <c r="H45">
+        <v>0.56887389399999999</v>
+      </c>
+      <c r="J45">
+        <v>0.25557865699999999</v>
+      </c>
+      <c r="L45">
+        <v>0.23919907500000001</v>
+      </c>
+      <c r="N45">
+        <v>0.36451717</v>
+      </c>
+      <c r="P45">
+        <v>0.51548707800000004</v>
+      </c>
+      <c r="R45">
+        <v>0.33555676299999998</v>
+      </c>
+      <c r="S45">
+        <v>0.32587606299999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.346240561</v>
+      </c>
+      <c r="D46">
+        <v>0.41044439100000002</v>
+      </c>
+      <c r="F46">
+        <v>0.38552120600000001</v>
+      </c>
+      <c r="H46">
+        <v>0.66760054099999999</v>
+      </c>
+      <c r="J46">
+        <v>2.9055747999999999E-2</v>
+      </c>
+      <c r="L46">
+        <v>6.5907979000000005E-2</v>
+      </c>
+      <c r="N46">
+        <v>0.41359706699999998</v>
+      </c>
+      <c r="P46">
+        <v>0.53919288099999996</v>
+      </c>
+      <c r="R46">
+        <v>0.47639497400000003</v>
+      </c>
+      <c r="S46">
+        <v>0.44273802299999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.55372969800000005</v>
+      </c>
+      <c r="D47">
+        <v>0.34178784000000001</v>
+      </c>
+      <c r="F47">
+        <v>0.44378711599999998</v>
+      </c>
+      <c r="H47">
+        <v>0.51870693800000001</v>
+      </c>
+      <c r="J47">
+        <v>0.14225739700000001</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0.206525968</v>
+      </c>
+      <c r="P47">
+        <v>0.31272255900000001</v>
+      </c>
+      <c r="R47">
+        <v>0.48323285399999999</v>
+      </c>
+      <c r="S47">
+        <v>0.36597881799999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.56152512200000004</v>
+      </c>
+      <c r="D48">
+        <v>0.48782494900000001</v>
+      </c>
+      <c r="F48">
+        <v>0.76681257400000002</v>
+      </c>
+      <c r="H48">
+        <v>0.55656336900000003</v>
+      </c>
+      <c r="J48">
+        <v>0.12428583999999999</v>
+      </c>
+      <c r="L48">
+        <v>0.22541683800000001</v>
+      </c>
+      <c r="N48">
+        <v>0.17462947200000001</v>
+      </c>
+      <c r="P48">
+        <v>0.32747564200000001</v>
+      </c>
+      <c r="R48">
+        <v>0.41416511700000003</v>
+      </c>
+      <c r="S48">
+        <v>0.403918897</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.18062529899999999</v>
+      </c>
+      <c r="D49">
+        <v>0.328309236</v>
+      </c>
+      <c r="F49">
+        <v>0.20697839000000001</v>
+      </c>
+      <c r="H49">
+        <v>0.44377537700000003</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0.18690891200000001</v>
+      </c>
+      <c r="N49">
+        <v>6.3407362999999994E-2</v>
+      </c>
+      <c r="P49">
+        <v>0.31368555599999998</v>
+      </c>
+      <c r="R49">
+        <v>9.1398E-3</v>
+      </c>
+      <c r="S49">
+        <v>8.0468322999999994E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.22013579799999999</v>
+      </c>
+      <c r="D50">
+        <v>0.121373575</v>
+      </c>
+      <c r="F50">
+        <v>0.19609499399999999</v>
+      </c>
+      <c r="H50">
+        <v>0.17855170400000001</v>
+      </c>
+      <c r="J50">
+        <v>2.1398482E-2</v>
+      </c>
+      <c r="L50">
+        <v>3.6732616000000003E-2</v>
+      </c>
+      <c r="N50">
+        <v>0.19397247200000001</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0.18855787700000001</v>
+      </c>
+      <c r="S50">
+        <v>0.23750582100000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.27103106300000002</v>
+      </c>
+      <c r="D51">
+        <v>0.172588032</v>
+      </c>
+      <c r="F51">
+        <v>0.29851323400000002</v>
+      </c>
+      <c r="H51">
+        <v>0.30920284999999997</v>
+      </c>
+      <c r="J51">
+        <v>1.1144494E-2</v>
+      </c>
+      <c r="L51">
+        <v>0.11303701100000001</v>
+      </c>
+      <c r="N51">
+        <v>3.2826978999999999E-2</v>
+      </c>
+      <c r="P51">
+        <v>0.26432162300000001</v>
+      </c>
+      <c r="R51">
+        <v>0.18039675899999999</v>
+      </c>
+      <c r="S51">
+        <v>0.12338547</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.53253287400000004</v>
+      </c>
+      <c r="D52">
+        <v>0.17392401800000001</v>
+      </c>
+      <c r="F52">
+        <v>0.68048501699999997</v>
+      </c>
+      <c r="H52">
+        <v>0.85123550599999998</v>
+      </c>
+      <c r="J52">
+        <v>0.29229302800000001</v>
+      </c>
+      <c r="L52">
+        <v>9.6300211999999996E-2</v>
+      </c>
+      <c r="N52">
+        <v>5.1433067999999998E-2</v>
+      </c>
+      <c r="P52">
+        <v>0.345148713</v>
+      </c>
+      <c r="R52">
+        <v>0.346206556</v>
+      </c>
+      <c r="S52">
+        <v>0.57320512300000004</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.29471231599999997</v>
+      </c>
+      <c r="D53">
+        <v>0.34166280599999999</v>
+      </c>
+      <c r="F53">
+        <v>0.49064513599999998</v>
+      </c>
+      <c r="H53">
+        <v>0.427474627</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0.190679035</v>
+      </c>
+      <c r="N53">
+        <v>0.173083025</v>
+      </c>
+      <c r="P53">
+        <v>0.26656703900000001</v>
+      </c>
+      <c r="R53">
+        <v>0.18901116700000001</v>
+      </c>
+      <c r="S53">
+        <v>0.400580251</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.81513224500000003</v>
+      </c>
+      <c r="D54">
+        <v>0.56871797599999996</v>
+      </c>
+      <c r="F54">
+        <v>0.36337275099999999</v>
+      </c>
+      <c r="H54">
+        <v>0.48744020799999999</v>
+      </c>
+      <c r="J54">
+        <v>0.43613786199999999</v>
+      </c>
+      <c r="L54">
+        <v>0.11668680100000001</v>
+      </c>
+      <c r="N54">
+        <v>0.21485404399999999</v>
+      </c>
+      <c r="P54">
+        <v>0.19117255499999999</v>
+      </c>
+      <c r="R54">
+        <v>0.35893530200000001</v>
+      </c>
+      <c r="S54">
+        <v>0.18673510600000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1.3095314039999999</v>
+      </c>
+      <c r="D55">
+        <v>0.35183837400000001</v>
+      </c>
+      <c r="F55">
+        <v>0.57846967900000001</v>
+      </c>
+      <c r="H55">
+        <v>0.49943949799999998</v>
+      </c>
+      <c r="J55">
+        <v>0.549565725</v>
+      </c>
+      <c r="L55">
+        <v>0.236222557</v>
+      </c>
+      <c r="N55">
+        <v>0.204584445</v>
+      </c>
+      <c r="P55">
+        <v>0.144172577</v>
+      </c>
+      <c r="R55">
+        <v>1.1477386999999999</v>
+      </c>
+      <c r="S55">
+        <v>9.5869122000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0.22016006900000001</v>
+      </c>
+      <c r="D56">
+        <v>0.31793207899999998</v>
+      </c>
+      <c r="F56">
+        <v>0.35522388100000002</v>
+      </c>
+      <c r="H56">
+        <v>0.48487994800000001</v>
+      </c>
+      <c r="J56">
+        <v>0.133549643</v>
+      </c>
+      <c r="L56">
+        <v>0.21107505900000001</v>
+      </c>
+      <c r="N56">
+        <v>0.230672723</v>
+      </c>
+      <c r="P56">
+        <v>0.31209171499999999</v>
+      </c>
+      <c r="R56">
+        <v>8.4101232999999997E-2</v>
+      </c>
+      <c r="S56">
+        <v>0.29214795599999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.50921310099999995</v>
+      </c>
+      <c r="D57">
+        <v>0.59429120000000002</v>
+      </c>
+      <c r="F57">
+        <v>1.090136996</v>
+      </c>
+      <c r="H57">
+        <v>0.55393079999999995</v>
+      </c>
+      <c r="J57">
+        <v>9.7337617000000001E-2</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0.20398065100000001</v>
+      </c>
+      <c r="P57">
+        <v>4.3868394999999998E-2</v>
+      </c>
+      <c r="R57">
+        <v>0.68306192499999996</v>
+      </c>
+      <c r="S57">
+        <v>0.58332410199999996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.33549933799999998</v>
+      </c>
+      <c r="D58">
+        <v>0.55670393500000004</v>
+      </c>
+      <c r="F58">
+        <v>0.94899165600000002</v>
+      </c>
+      <c r="H58">
+        <v>1.2711229879999999</v>
+      </c>
+      <c r="J58">
+        <v>0.21563174600000001</v>
+      </c>
+      <c r="L58">
+        <v>0.45488827999999998</v>
+      </c>
+      <c r="N58">
+        <v>0.61144096199999998</v>
+      </c>
+      <c r="P58">
+        <v>0.85756953899999999</v>
+      </c>
+      <c r="R58">
+        <v>0.114739201</v>
+      </c>
+      <c r="S58">
+        <v>0.22513636400000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.321908796</v>
+      </c>
+      <c r="D59">
+        <v>0.13578069000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.247371019</v>
+      </c>
+      <c r="H59">
+        <v>0.23942556700000001</v>
+      </c>
+      <c r="J59">
+        <v>3.3079826E-2</v>
+      </c>
+      <c r="L59">
+        <v>1.7188922999999998E-2</v>
+      </c>
+      <c r="N59">
+        <v>0.21358318200000001</v>
+      </c>
+      <c r="P59">
+        <v>0.169175187</v>
+      </c>
+      <c r="R59">
+        <v>0.12669455399999999</v>
+      </c>
+      <c r="S59">
+        <v>0.18498742300000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0.57167101200000003</v>
+      </c>
+      <c r="D60">
+        <v>0.265864041</v>
+      </c>
+      <c r="F60">
+        <v>0.26898153800000002</v>
+      </c>
+      <c r="H60">
+        <v>0.24053437799999999</v>
+      </c>
+      <c r="J60">
+        <v>5.7868537999999997E-2</v>
+      </c>
+      <c r="L60">
+        <v>8.9725461000000006E-2</v>
+      </c>
+      <c r="N60">
+        <v>4.1258124E-2</v>
+      </c>
+      <c r="P60">
+        <v>0.23673492800000001</v>
+      </c>
+      <c r="R60">
+        <v>0.47400567700000001</v>
+      </c>
+      <c r="S60">
+        <v>0.23210739399999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0.52190887200000002</v>
+      </c>
+      <c r="D61">
+        <v>1.073659046</v>
+      </c>
+      <c r="F61">
+        <v>0.71192220699999997</v>
+      </c>
+      <c r="H61">
+        <v>1.847398366</v>
+      </c>
+      <c r="J61">
+        <v>0.17599252700000001</v>
+      </c>
+      <c r="L61">
+        <v>0.13204671100000001</v>
+      </c>
+      <c r="N61">
+        <v>0.390238839</v>
+      </c>
+      <c r="P61">
+        <v>0.61021903399999999</v>
+      </c>
+      <c r="R61">
+        <v>0.80173908199999999</v>
+      </c>
+      <c r="S61">
+        <v>0.68626622100000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0.51861055749963425</v>
+      </c>
+      <c r="D62">
+        <v>0.24094672194449532</v>
+      </c>
+      <c r="F62">
+        <v>0.45791827409848135</v>
+      </c>
+      <c r="H62">
+        <v>0.44399624403945115</v>
+      </c>
+      <c r="J62">
+        <v>0.38812887019739206</v>
+      </c>
+      <c r="L62">
+        <v>0.11790405928753961</v>
+      </c>
+      <c r="N62">
+        <v>0.28673108045409718</v>
+      </c>
+      <c r="P62">
+        <v>0.41335881522927731</v>
+      </c>
+      <c r="R62">
+        <v>0.6274174962872201</v>
+      </c>
+      <c r="S62">
+        <v>0.40255878547317175</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0.65526233387720478</v>
+      </c>
+      <c r="D63">
+        <v>0.7085166186074594</v>
+      </c>
+      <c r="F63">
+        <v>0.69997033686568833</v>
+      </c>
+      <c r="H63">
+        <v>0.82951547275156801</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0.13443685122557475</v>
+      </c>
+      <c r="N63">
+        <v>0.597997980176598</v>
+      </c>
+      <c r="P63">
+        <v>0.86358683889675891</v>
+      </c>
+      <c r="R63">
+        <v>0.46593588610721226</v>
+      </c>
+      <c r="S63">
+        <v>0.50774298813844021</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1.3484038929247939</v>
+      </c>
+      <c r="D64">
+        <v>1.2792507785181271</v>
+      </c>
+      <c r="F64">
+        <v>1.3087533793981374</v>
+      </c>
+      <c r="H64">
+        <v>1.8627148366984112</v>
+      </c>
+      <c r="J64">
+        <v>0.40819433034484626</v>
+      </c>
+      <c r="L64">
+        <v>1.395337988916223E-2</v>
+      </c>
+      <c r="N64">
+        <v>0.59733560006421882</v>
+      </c>
+      <c r="P64">
+        <v>1.1845914858194546</v>
+      </c>
+      <c r="R64">
+        <v>1.3000376318427378</v>
+      </c>
+      <c r="S64">
+        <v>1.0304086839944095</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0.9757635025592204</v>
+      </c>
+      <c r="D65">
+        <v>0.4899685611302162</v>
+      </c>
+      <c r="F65">
+        <v>0.64685348651956476</v>
+      </c>
+      <c r="H65">
+        <v>0.4522476741065069</v>
+      </c>
+      <c r="J65">
+        <v>0.21930212761058784</v>
+      </c>
+      <c r="L65">
+        <v>4.3448820268827633E-2</v>
+      </c>
+      <c r="N65">
+        <v>0.29752151752813005</v>
+      </c>
+      <c r="P65">
+        <v>0.59489911713551191</v>
+      </c>
+      <c r="R65">
+        <v>0.60117393847939971</v>
+      </c>
+      <c r="S65">
+        <v>0.58129887362638999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0.89881256813883625</v>
+      </c>
+      <c r="D66">
+        <v>1.2754882077728251</v>
+      </c>
+      <c r="F66">
+        <v>1.037496884659773</v>
+      </c>
+      <c r="H66">
+        <v>1.7069849766777727</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0.80998845995296576</v>
+      </c>
+      <c r="N66">
+        <v>1.2849966395666621</v>
+      </c>
+      <c r="P66">
+        <v>1.2602510934696529</v>
+      </c>
+      <c r="R66">
+        <v>1.1254351141070875</v>
+      </c>
+      <c r="S66">
+        <v>1.5680939551178361</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>1.0544212193209499</v>
+      </c>
+      <c r="D67">
+        <v>0.74653589616414484</v>
+      </c>
+      <c r="F67">
+        <v>0.94345853994386941</v>
+      </c>
+      <c r="H67">
+        <v>0.42408754206897203</v>
+      </c>
+      <c r="J67">
+        <v>0.57690087933654999</v>
+      </c>
+      <c r="L67">
+        <v>0.13236731457052911</v>
+      </c>
+      <c r="N67">
+        <v>0.19484783865053756</v>
+      </c>
+      <c r="P67">
+        <v>0.37090424603617012</v>
+      </c>
+      <c r="R67">
+        <v>0.61163416773328105</v>
+      </c>
+      <c r="S67">
+        <v>0.56279745712932983</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0.70532537744531421</v>
+      </c>
+      <c r="D68">
+        <v>0.32360558958749464</v>
+      </c>
+      <c r="F68">
+        <v>5.6152143344790233E-2</v>
+      </c>
+      <c r="H68">
+        <v>0.39589463364630245</v>
+      </c>
+      <c r="J68">
+        <v>0.27982640485468446</v>
+      </c>
+      <c r="L68">
+        <v>4.5234041786434094E-2</v>
+      </c>
+      <c r="N68">
+        <v>0.33381628358767751</v>
+      </c>
+      <c r="P68">
+        <v>0.19739340335778649</v>
+      </c>
+      <c r="R68">
+        <v>0.63319650113552262</v>
+      </c>
+      <c r="S68">
+        <v>9.4232025674890169E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>0.11045533771914245</v>
+      </c>
+      <c r="D69">
+        <v>0.58111347704678518</v>
+      </c>
+      <c r="F69">
+        <v>0.68156707614595047</v>
+      </c>
+      <c r="H69">
+        <v>0.85821772133597207</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0.10832101031891683</v>
+      </c>
+      <c r="N69">
+        <v>0.31397981331334596</v>
+      </c>
+      <c r="P69">
+        <v>0.65963179892329826</v>
+      </c>
+      <c r="R69">
+        <v>0.29248074899001497</v>
+      </c>
+      <c r="S69">
+        <v>0.6206063234668171</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0.58085704891432743</v>
+      </c>
+      <c r="D70">
+        <v>0.40277130322043231</v>
+      </c>
+      <c r="F70">
+        <v>0.47674276665853221</v>
+      </c>
+      <c r="H70">
+        <v>0.22422652982879401</v>
+      </c>
+      <c r="J70">
+        <v>0.35316230981376229</v>
+      </c>
+      <c r="L70">
+        <v>8.8932366178971267E-2</v>
+      </c>
+      <c r="N70">
+        <v>0.13330504362632845</v>
+      </c>
+      <c r="P70">
+        <v>0.18288003498130284</v>
+      </c>
+      <c r="R70">
+        <v>0.79673607505475286</v>
+      </c>
+      <c r="S70">
+        <v>0.4685652732285826</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>1.2209050864758209</v>
+      </c>
+      <c r="D71">
+        <v>1.1497670098806099</v>
+      </c>
+      <c r="F71">
+        <v>0.74810386021386377</v>
+      </c>
+      <c r="H71">
+        <v>0.70397413812258525</v>
+      </c>
+      <c r="J71">
+        <v>0.39988900393084842</v>
+      </c>
+      <c r="L71">
+        <v>0.35727505683726829</v>
+      </c>
+      <c r="N71">
+        <v>0.25325499762213599</v>
+      </c>
+      <c r="P71">
+        <v>0.41532234936168994</v>
+      </c>
+      <c r="R71">
+        <v>1.1272198567902794</v>
+      </c>
+      <c r="S71">
+        <v>0.64520340753110172</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0.34896779771277703</v>
+      </c>
+      <c r="D72">
+        <v>0.2437637482564658</v>
+      </c>
+      <c r="F72">
+        <v>0.36901906456460304</v>
+      </c>
+      <c r="H72">
+        <v>0.46909784923530301</v>
+      </c>
+      <c r="J72">
+        <v>0.33381689950124582</v>
+      </c>
+      <c r="L72">
+        <v>0.23656707160598298</v>
+      </c>
+      <c r="N72">
+        <v>6.1029711858321192E-2</v>
+      </c>
+      <c r="P72">
+        <v>0.24634413560810892</v>
+      </c>
+      <c r="R72">
+        <v>0.62100927708436116</v>
+      </c>
+      <c r="S72">
+        <v>0.29518210906183862</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0.60207238309439348</v>
+      </c>
+      <c r="D73">
+        <v>0.32944394315927394</v>
+      </c>
+      <c r="F73">
+        <v>0.41282588849631502</v>
+      </c>
+      <c r="H73">
+        <v>0.4379020879016795</v>
+      </c>
+      <c r="J73">
+        <v>0.28158422543703543</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0.12019380606410281</v>
+      </c>
+      <c r="P73">
+        <v>0.25524705143299448</v>
+      </c>
+      <c r="R73">
+        <v>1.0522689733331099</v>
+      </c>
+      <c r="S73">
+        <v>0.29673024987786889</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>1.2784820457691362</v>
+      </c>
+      <c r="D74">
+        <v>0.20395696293737919</v>
+      </c>
+      <c r="F74">
+        <v>0.43827938586476112</v>
+      </c>
+      <c r="H74">
+        <v>0.3956853017158885</v>
+      </c>
+      <c r="J74">
+        <v>0.37504778094439284</v>
+      </c>
+      <c r="L74">
+        <v>8.6974371826568989E-2</v>
+      </c>
+      <c r="N74">
+        <v>0.22686158818775043</v>
+      </c>
+      <c r="P74">
+        <v>0.31254439746272122</v>
+      </c>
+      <c r="R74">
+        <v>0.90398386591053514</v>
+      </c>
+      <c r="S74">
+        <v>0.30987883219662732</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>0.91016147066087771</v>
+      </c>
+      <c r="D75">
+        <v>0.51594751493465019</v>
+      </c>
+      <c r="F75">
+        <v>0.86486499942912376</v>
+      </c>
+      <c r="H75">
+        <v>1.064472731761944</v>
+      </c>
+      <c r="J75">
+        <v>0.59558692650824707</v>
+      </c>
+      <c r="L75">
+        <v>0.29705794723362278</v>
+      </c>
+      <c r="N75">
+        <v>0.45256866522965694</v>
+      </c>
+      <c r="P75">
+        <v>0.54249398545918248</v>
+      </c>
+      <c r="R75">
+        <v>0.23746983394197962</v>
+      </c>
+      <c r="S75">
+        <v>0.44318800706049849</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>0.38015874579426762</v>
+      </c>
+      <c r="D76">
+        <v>0.27967139077481085</v>
+      </c>
+      <c r="F76">
+        <v>0.41600620202257299</v>
+      </c>
+      <c r="H76">
+        <v>0.75169173903158348</v>
+      </c>
+      <c r="J76">
+        <v>0.45053583494355942</v>
+      </c>
+      <c r="L76">
+        <v>0.26794409447434114</v>
+      </c>
+      <c r="N76">
+        <v>0.77581189895941916</v>
+      </c>
+      <c r="P76">
+        <v>0.51166153824854754</v>
+      </c>
+      <c r="R76">
+        <v>0.28839032275755722</v>
+      </c>
+      <c r="S76">
+        <v>0.31324260674501281</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0.51099301189844448</v>
+      </c>
+      <c r="D77">
+        <v>0.22979150066907356</v>
+      </c>
+      <c r="F77">
+        <v>1.0868728150269054</v>
+      </c>
+      <c r="H77">
+        <v>0.93439648040625223</v>
+      </c>
+      <c r="J77">
+        <v>0.26722912052092873</v>
+      </c>
+      <c r="L77">
+        <v>0.40540901171546773</v>
+      </c>
+      <c r="N77">
+        <v>0.82602943923630745</v>
+      </c>
+      <c r="P77">
+        <v>0.67244751299069272</v>
+      </c>
+      <c r="R77">
+        <v>0.43121885758072792</v>
+      </c>
+      <c r="S77">
+        <v>0.48388695516254104</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>1.0778414464356665</v>
+      </c>
+      <c r="D78">
+        <v>1.5090800933287227</v>
+      </c>
+      <c r="F78">
+        <v>1.5739253721107889</v>
+      </c>
+      <c r="H78">
+        <v>1.4851737792868296</v>
+      </c>
+      <c r="J78">
+        <v>0.83946407753363927</v>
+      </c>
+      <c r="L78">
+        <v>0.65082906586756051</v>
+      </c>
+      <c r="N78">
+        <v>1.0786707515258378</v>
+      </c>
+      <c r="P78">
+        <v>0.99124285721121019</v>
+      </c>
+      <c r="R78">
+        <v>1.280861711781399</v>
+      </c>
+      <c r="S78">
+        <v>1.2561101444745082</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0.16063410386731369</v>
+      </c>
+      <c r="D79">
+        <v>0.52619916995815641</v>
+      </c>
+      <c r="F79">
+        <v>0.67228415905744621</v>
+      </c>
+      <c r="H79">
+        <v>0.41956752014050719</v>
+      </c>
+      <c r="J79">
+        <v>0.32891391600558939</v>
+      </c>
+      <c r="L79">
+        <v>0.21153744801104382</v>
+      </c>
+      <c r="N79">
+        <v>0.26309030620689611</v>
+      </c>
+      <c r="P79">
+        <v>0.29571446916886696</v>
+      </c>
+      <c r="R79">
+        <v>0.86088448225564718</v>
+      </c>
+      <c r="S79">
+        <v>0.27734250026537288</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>0.31857793437207821</v>
+      </c>
+      <c r="D80">
+        <v>0.28155630302468754</v>
+      </c>
+      <c r="F80">
+        <v>0.54923149330228693</v>
+      </c>
+      <c r="H80">
+        <v>0.49266755806440193</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0.12579358625424036</v>
+      </c>
+      <c r="N80">
+        <v>0.10019028958591905</v>
+      </c>
+      <c r="P80">
+        <v>0.52933736397349096</v>
+      </c>
+      <c r="R80">
+        <v>0.25219487099280824</v>
+      </c>
+      <c r="S80">
+        <v>0.14674319189790422</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0.54557926314601179</v>
+      </c>
+      <c r="D81">
+        <v>0.55180466724144606</v>
+      </c>
+      <c r="F81">
+        <v>0.89581588614428387</v>
+      </c>
+      <c r="H81">
+        <v>1.3887591929702381</v>
+      </c>
+      <c r="J81">
+        <v>0.4703803343107838</v>
+      </c>
+      <c r="L81">
+        <v>0.27261670368147778</v>
+      </c>
+      <c r="N81">
+        <v>0.67311770048724107</v>
+      </c>
+      <c r="P81">
+        <v>0.72830640187288376</v>
+      </c>
+      <c r="R81">
+        <v>1.0502651972736645</v>
+      </c>
+      <c r="S81">
+        <v>0.78418681482469643</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0.65869370517980463</v>
+      </c>
+      <c r="D82">
+        <v>0.34588685737812608</v>
+      </c>
+      <c r="F82">
+        <v>0.87050764331000607</v>
+      </c>
+      <c r="H82">
+        <v>0.67046946945838226</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0.19394054527481727</v>
+      </c>
+      <c r="N82">
+        <v>0.38377605312936841</v>
+      </c>
+      <c r="P82">
+        <v>0.41773999412111401</v>
+      </c>
+      <c r="R82">
+        <v>0.44253501941503615</v>
+      </c>
+      <c r="S82">
+        <v>0.30775795141254786</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0.46902358784851733</v>
+      </c>
+      <c r="D83">
+        <v>0.34340336294792839</v>
+      </c>
+      <c r="F83">
+        <v>0.5041079129944166</v>
+      </c>
+      <c r="H83">
+        <v>0.60976024626474701</v>
+      </c>
+      <c r="J83">
+        <v>9.1216287173181587E-2</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0.32547663357321427</v>
+      </c>
+      <c r="P83">
+        <v>0.53797937361166992</v>
+      </c>
+      <c r="R83">
+        <v>0.36964265165317528</v>
+      </c>
+      <c r="S83">
+        <v>0.4159829512662192</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1.3201440443421897</v>
+      </c>
+      <c r="D84">
+        <v>0.34751442043648356</v>
+      </c>
+      <c r="F84">
+        <v>0.85602702619903648</v>
+      </c>
+      <c r="H84">
+        <v>0.60507386457085033</v>
+      </c>
+      <c r="J84">
+        <v>0.2597672432102785</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0.24420996134980844</v>
+      </c>
+      <c r="P84">
+        <v>0.75412597427690387</v>
+      </c>
+      <c r="R84">
+        <v>0.74094763870753211</v>
+      </c>
+      <c r="S84">
+        <v>0.59465099916599962</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>0.82670814865881259</v>
+      </c>
+      <c r="D85">
+        <v>1.2223980251634019</v>
+      </c>
+      <c r="F85">
+        <v>0.85839413637471773</v>
+      </c>
+      <c r="H85">
+        <v>1.1065664915645681</v>
+      </c>
+      <c r="J85">
+        <v>0.37337642627662004</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0.99203793316151823</v>
+      </c>
+      <c r="P85">
+        <v>1.2832232763488942</v>
+      </c>
+      <c r="R85">
+        <v>0.57332389268577488</v>
+      </c>
+      <c r="S85">
+        <v>0.6664421995761185</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0.70043742297041567</v>
+      </c>
+      <c r="D86">
+        <v>0.65279474846426777</v>
+      </c>
+      <c r="F86">
+        <v>0.57275619951911083</v>
+      </c>
+      <c r="H86">
+        <v>1.0566776192851173</v>
+      </c>
+      <c r="J86">
+        <v>0.16674220936431666</v>
+      </c>
+      <c r="L86">
+        <v>0.19437524663415448</v>
+      </c>
+      <c r="N86">
+        <v>0.52874643985073677</v>
+      </c>
+      <c r="P86">
+        <v>0.87394486350896472</v>
+      </c>
+      <c r="R86">
+        <v>0.78688363273175843</v>
+      </c>
+      <c r="S86">
+        <v>0.78882881547954553</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0.51985219716133935</v>
+      </c>
+      <c r="D87">
+        <v>0.35405752343052488</v>
+      </c>
+      <c r="F87">
+        <v>0.88872516953095937</v>
+      </c>
+      <c r="H87">
+        <v>0.8545833421606247</v>
+      </c>
+      <c r="J87">
+        <v>8.4742062025136386E-2</v>
+      </c>
+      <c r="L87">
+        <v>0.14164030367057504</v>
+      </c>
+      <c r="N87">
+        <v>0.25304440901994651</v>
+      </c>
+      <c r="P87">
+        <v>0.51143563862006391</v>
+      </c>
+      <c r="R87">
+        <v>0.41235372086108213</v>
+      </c>
+      <c r="S87">
+        <v>0.61252081260719426</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>1.465399604322116</v>
+      </c>
+      <c r="D88">
+        <v>0.38768554318165777</v>
+      </c>
+      <c r="F88">
+        <v>0.59314306890265012</v>
+      </c>
+      <c r="H88">
+        <v>0.96102028140191809</v>
+      </c>
+      <c r="J88">
+        <v>0.34211775779471465</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0.28178715991804842</v>
+      </c>
+      <c r="P88">
+        <v>0.50682302119016009</v>
+      </c>
+      <c r="R88">
+        <v>1.2531572222280418</v>
+      </c>
+      <c r="S88">
+        <v>0.44038317763860502</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0.52616652845974698</v>
+      </c>
+      <c r="D89">
+        <v>0.7204180914401781</v>
+      </c>
+      <c r="F89">
+        <v>1.0607914364512192</v>
+      </c>
+      <c r="H89">
+        <v>0.70037129520063823</v>
+      </c>
+      <c r="J89">
+        <v>0.55401658017087962</v>
+      </c>
+      <c r="L89">
+        <v>0.26418969597584269</v>
+      </c>
+      <c r="N89">
+        <v>0.33249729797719624</v>
+      </c>
+      <c r="P89">
+        <v>0.47834247207132657</v>
+      </c>
+      <c r="R89">
+        <v>0.62097025911465464</v>
+      </c>
+      <c r="S89">
+        <v>0.72753710622675127</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>1.6563004166161552E-2</v>
+      </c>
+      <c r="D90">
+        <v>0.34306531250477179</v>
+      </c>
+      <c r="F90">
+        <v>0.88228476680880663</v>
+      </c>
+      <c r="H90">
+        <v>1.0913592413014015</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0.34458185328121832</v>
+      </c>
+      <c r="N90">
+        <v>0.44843516037344022</v>
+      </c>
+      <c r="P90">
+        <v>0.78457196305645804</v>
+      </c>
+      <c r="R90">
+        <v>0.75908813079361315</v>
+      </c>
+      <c r="S90">
+        <v>0.62236157216509935</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>1.2187051469072254</v>
+      </c>
+      <c r="D91">
+        <v>0.67740915406753099</v>
+      </c>
+      <c r="F91">
+        <v>0.78773833421513761</v>
+      </c>
+      <c r="H91">
+        <v>1.3010155480478727</v>
+      </c>
+      <c r="J91">
+        <v>8.2869100622325595E-2</v>
+      </c>
+      <c r="L91">
+        <v>4.6372056980577697E-3</v>
+      </c>
+      <c r="N91">
+        <v>0.69066429927071982</v>
+      </c>
+      <c r="P91">
+        <v>0.80515579055697306</v>
+      </c>
+      <c r="R91">
+        <v>1.2691138076431141</v>
+      </c>
+      <c r="S91">
+        <v>1.4085232958129286</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0.18139697526009188</v>
+      </c>
+      <c r="D92">
+        <v>0.13870795767715255</v>
+      </c>
+      <c r="F92">
+        <v>0.5998138379057063</v>
+      </c>
+      <c r="H92">
+        <v>0.82843206803300196</v>
+      </c>
+      <c r="J92">
+        <v>9.9942102012245876E-2</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0.34339310870634243</v>
+      </c>
+      <c r="P92">
+        <v>0.31865390044699804</v>
+      </c>
+      <c r="R92">
+        <v>0.65566963178887827</v>
+      </c>
+      <c r="S92">
+        <v>5.6411127305354435E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0.36647898703199883</v>
+      </c>
+      <c r="D93">
+        <v>0.45009978603652639</v>
+      </c>
+      <c r="F93">
+        <v>0.51183225102103336</v>
+      </c>
+      <c r="H93">
+        <v>0.66315962452471078</v>
+      </c>
+      <c r="J93">
+        <v>7.4149241622771755E-2</v>
+      </c>
+      <c r="L93">
+        <v>0.33654150265755445</v>
+      </c>
+      <c r="N93">
+        <v>0.45160586406542502</v>
+      </c>
+      <c r="P93">
+        <v>0.50448593708008782</v>
+      </c>
+      <c r="R93">
+        <v>0.57122192796060633</v>
+      </c>
+      <c r="S93">
+        <v>0.45578941414569901</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0.21832822476916516</v>
+      </c>
+      <c r="D94">
+        <v>0.397772380120401</v>
+      </c>
+      <c r="F94">
+        <v>0.63148201489379341</v>
+      </c>
+      <c r="H94">
+        <v>0.70474210052317054</v>
+      </c>
+      <c r="J94">
+        <v>0.33459209885163732</v>
+      </c>
+      <c r="L94">
+        <v>5.6139613901282748E-2</v>
+      </c>
+      <c r="N94">
+        <v>0.35821294692619604</v>
+      </c>
+      <c r="P94">
+        <v>0.35134112050279875</v>
+      </c>
+      <c r="R94">
+        <v>0.265671225484717</v>
+      </c>
+      <c r="S94">
+        <v>0.3629742615487932</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0.75542991856610575</v>
+      </c>
+      <c r="D95">
+        <v>0.47059010478177443</v>
+      </c>
+      <c r="F95">
+        <v>0.76579667276375141</v>
+      </c>
+      <c r="H95">
+        <v>0.74233905377639797</v>
+      </c>
+      <c r="J95">
+        <v>6.276804822582463E-2</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0.41644840676419798</v>
+      </c>
+      <c r="P95">
+        <v>0.37581375709899939</v>
+      </c>
+      <c r="R95">
+        <v>0.58734851154785095</v>
+      </c>
+      <c r="S95">
+        <v>0.42812046395386427</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>1.0561102854949507</v>
+      </c>
+      <c r="D96">
+        <v>1.043023896194601</v>
+      </c>
+      <c r="F96">
+        <v>1.286597624260662</v>
+      </c>
+      <c r="H96">
+        <v>1.7320029583787717</v>
+      </c>
+      <c r="J96">
+        <v>0.58534625609188251</v>
+      </c>
+      <c r="L96">
+        <v>0.39570554769286514</v>
+      </c>
+      <c r="N96">
+        <v>0.14437767604449231</v>
+      </c>
+      <c r="P96">
+        <v>0.81530444070237473</v>
+      </c>
+      <c r="R96">
+        <v>0.7537190378674854</v>
+      </c>
+      <c r="S96">
+        <v>0.8625212730146441</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0.93603533328010002</v>
+      </c>
+      <c r="D97">
+        <v>1.3661080244021233</v>
+      </c>
+      <c r="F97">
+        <v>1.5147584439572637</v>
+      </c>
+      <c r="H97">
+        <v>1.7464112748142542</v>
+      </c>
+      <c r="J97">
+        <v>0.7624735216440125</v>
+      </c>
+      <c r="L97">
+        <v>0.7794900828299216</v>
+      </c>
+      <c r="N97">
+        <v>0.75895285381243516</v>
+      </c>
+      <c r="P97">
+        <v>0.55811475705701508</v>
+      </c>
+      <c r="R97">
+        <v>0.79287928928029128</v>
+      </c>
+      <c r="S97">
+        <v>1.6321318194935821</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0.31899509865854264</v>
+      </c>
+      <c r="D98">
+        <v>0.20189426126481477</v>
+      </c>
+      <c r="F98">
+        <v>0.3502737286220497</v>
+      </c>
+      <c r="H98">
+        <v>0.34189906947428261</v>
+      </c>
+      <c r="J98">
+        <v>2.3553728853083208E-2</v>
+      </c>
+      <c r="L98">
+        <v>0.10177737701344192</v>
+      </c>
+      <c r="N98">
+        <v>0.29062233102860907</v>
+      </c>
+      <c r="P98">
+        <v>0.23068215208524981</v>
+      </c>
+      <c r="R98">
+        <v>0.32177461915153333</v>
+      </c>
+      <c r="S98">
+        <v>0.32523999535062026</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>0.78934232527307735</v>
+      </c>
+      <c r="D99">
+        <v>0.80356058857510637</v>
+      </c>
+      <c r="F99">
+        <v>0.65137180510763026</v>
+      </c>
+      <c r="H99">
+        <v>0.94841152838134535</v>
+      </c>
+      <c r="J99">
+        <v>0.34198163328200593</v>
+      </c>
+      <c r="L99">
+        <v>0.45955866586946931</v>
+      </c>
+      <c r="N99">
+        <v>0.67529126950984475</v>
+      </c>
+      <c r="P99">
+        <v>0.64645449688788326</v>
+      </c>
+      <c r="R99">
+        <v>0.85189506006834159</v>
+      </c>
+      <c r="S99">
+        <v>0.5608399677287309</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0.54790367927373029</v>
+      </c>
+      <c r="D100">
+        <v>0.40512274194766323</v>
+      </c>
+      <c r="F100">
+        <v>0.18678141280111041</v>
+      </c>
+      <c r="H100">
+        <v>0.41079799006242484</v>
+      </c>
+      <c r="J100">
+        <v>0.24455474650585646</v>
+      </c>
+      <c r="L100">
+        <v>8.0110971863746286E-2</v>
+      </c>
+      <c r="N100">
+        <v>0.21751080503221076</v>
+      </c>
+      <c r="P100">
+        <v>0.15567136368425227</v>
+      </c>
+      <c r="R100">
+        <v>0.52772886432921418</v>
+      </c>
+      <c r="S100">
+        <v>0.21398107754620152</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>0.49816440031082554</v>
+      </c>
+      <c r="D101">
+        <v>0.3434713472895129</v>
+      </c>
+      <c r="F101">
+        <v>0.43947289832434622</v>
+      </c>
+      <c r="H101">
+        <v>0.8621377075017147</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>7.604683124521687E-2</v>
+      </c>
+      <c r="N101">
+        <v>0.36577138184382391</v>
+      </c>
+      <c r="P101">
+        <v>0.54882319922823053</v>
+      </c>
+      <c r="R101">
+        <v>0.31599207596317941</v>
+      </c>
+      <c r="S101">
+        <v>0.33948431218953895</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>0.29896630123488516</v>
+      </c>
+      <c r="D102">
+        <v>0.22095587370323908</v>
+      </c>
+      <c r="F102">
+        <v>0.60685867222573542</v>
+      </c>
+      <c r="H102">
+        <v>0.8755818521309533</v>
+      </c>
+      <c r="J102">
+        <v>0.31333926978760657</v>
+      </c>
+      <c r="L102">
+        <v>0.11787830458857783</v>
+      </c>
+      <c r="N102">
+        <v>0.42351776979437294</v>
+      </c>
+      <c r="P102">
+        <v>0.43401231826144782</v>
+      </c>
+      <c r="R102">
+        <v>0.32125295783002394</v>
+      </c>
+      <c r="S102">
+        <v>0.21568008167496083</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0.38706941537798706</v>
+      </c>
+      <c r="D103">
+        <v>0.23745279100279956</v>
+      </c>
+      <c r="F103">
+        <v>0.45337657723951869</v>
+      </c>
+      <c r="H103">
+        <v>0.49009720101211129</v>
+      </c>
+      <c r="J103">
+        <v>0.19870420378715353</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0.21586946578736405</v>
+      </c>
+      <c r="P103">
+        <v>0.13935005944469531</v>
+      </c>
+      <c r="R103">
+        <v>0.60931248055782272</v>
+      </c>
+      <c r="S103">
+        <v>8.8705293817504166E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>0.10913199310792568</v>
+      </c>
+      <c r="D104">
+        <v>0.13508262664300633</v>
+      </c>
+      <c r="F104">
+        <v>0.36701859092937344</v>
+      </c>
+      <c r="H104">
+        <v>0.59177894379529006</v>
+      </c>
+      <c r="J104">
+        <v>0.17801437943761961</v>
+      </c>
+      <c r="L104">
+        <v>0.14098683118555558</v>
+      </c>
+      <c r="N104">
+        <v>0.12996216606630193</v>
+      </c>
+      <c r="P104">
+        <v>0.27488513361355021</v>
+      </c>
+      <c r="R104">
+        <v>0.46326234993262821</v>
+      </c>
+      <c r="S104">
+        <v>0.18745414009267453</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>0.46428736580128216</v>
+      </c>
+      <c r="D105">
+        <v>0.52305518119882344</v>
+      </c>
+      <c r="F105">
+        <v>0.55387792728758334</v>
+      </c>
+      <c r="H105">
+        <v>0.74751397003956277</v>
+      </c>
+      <c r="J105">
+        <v>0.43895382975531483</v>
+      </c>
+      <c r="L105">
+        <v>5.2962559928038666E-2</v>
+      </c>
+      <c r="N105">
+        <v>0.12227631219565685</v>
+      </c>
+      <c r="P105">
+        <v>0.37186902944445144</v>
+      </c>
+      <c r="R105">
+        <v>0.55770374034771153</v>
+      </c>
+      <c r="S105">
+        <v>0.54408051905970545</v>
+      </c>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>0.91529289722226304</v>
+      </c>
+      <c r="D106">
+        <v>0.62093120632372467</v>
+      </c>
+      <c r="F106">
+        <v>0.90278025351035995</v>
+      </c>
+      <c r="H106">
+        <v>0.87046757442751166</v>
+      </c>
+      <c r="J106">
+        <v>0.28756362050200168</v>
+      </c>
+      <c r="L106">
+        <v>0.1707206933262912</v>
+      </c>
+      <c r="N106">
+        <v>0.29402965147044535</v>
+      </c>
+      <c r="P106">
+        <v>0.52056792023784626</v>
+      </c>
+      <c r="R106">
+        <v>0.62350014295171985</v>
+      </c>
+      <c r="S106">
+        <v>0.73889258209938635</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>1.176469155438856</v>
+      </c>
+      <c r="D107">
+        <v>1.4920906719845137</v>
+      </c>
+      <c r="F107">
+        <v>1.6067798863094531</v>
+      </c>
+      <c r="H107">
+        <v>1.7789006990092038</v>
+      </c>
+      <c r="J107">
+        <v>0.78029377628331154</v>
+      </c>
+      <c r="L107">
+        <v>0.53711854135920112</v>
+      </c>
+      <c r="N107">
+        <v>0.3478256633471522</v>
+      </c>
+      <c r="P107">
+        <v>1.2748736148171946</v>
+      </c>
+      <c r="R107">
+        <v>1.3049899725229679</v>
+      </c>
+      <c r="S107">
+        <v>1.1717020370036422</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>0.18681081277463632</v>
+      </c>
+      <c r="D108">
+        <v>0.37178887491169493</v>
+      </c>
+      <c r="F108">
+        <v>0.49017159087297807</v>
+      </c>
+      <c r="H108">
+        <v>0.6356400905930224</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1.0509932859701896E-2</v>
+      </c>
+      <c r="N108">
+        <v>0.31189198903074417</v>
+      </c>
+      <c r="P108">
+        <v>0.40782756443983681</v>
+      </c>
+      <c r="R108">
+        <v>0.61898314453298975</v>
+      </c>
+      <c r="S108">
+        <v>0.46353994001553134</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>0.92209180760697795</v>
+      </c>
+      <c r="D109">
+        <v>0.78071410390444596</v>
+      </c>
+      <c r="F109">
+        <v>0.87409708810465625</v>
+      </c>
+      <c r="H109">
+        <v>1.5191497133259353</v>
+      </c>
+      <c r="J109">
+        <v>0.34324313441828963</v>
+      </c>
+      <c r="L109">
+        <v>0.50126619776846004</v>
+      </c>
+      <c r="N109">
+        <v>0.93918655601398049</v>
+      </c>
+      <c r="P109">
+        <v>1.087754479866673</v>
+      </c>
+      <c r="R109">
+        <v>0.89809444785581705</v>
+      </c>
+      <c r="S109">
+        <v>0.72986127189243122</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>1.3243527969461297</v>
+      </c>
+      <c r="D110">
+        <v>1.0590068621036062</v>
+      </c>
+      <c r="F110">
+        <v>0.81434565256380298</v>
+      </c>
+      <c r="H110">
+        <v>1.7062050050749253</v>
+      </c>
+      <c r="J110">
+        <v>0.41000150666517865</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0.29208089318726538</v>
+      </c>
+      <c r="P110">
+        <v>0.32227312755600934</v>
+      </c>
+      <c r="R110">
+        <v>1.0136694015160526</v>
+      </c>
+      <c r="S110">
+        <v>0.72883700181094246</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>0.12036038180373254</v>
+      </c>
+      <c r="D111">
+        <v>0.25849569766846237</v>
+      </c>
+      <c r="F111">
+        <v>0.42363848452659475</v>
+      </c>
+      <c r="H111">
+        <v>0.59266139072677648</v>
+      </c>
+      <c r="J111">
+        <v>4.151574331583549E-2</v>
+      </c>
+      <c r="L111">
+        <v>0.1773045838472283</v>
+      </c>
+      <c r="N111">
+        <v>0.30479641029147314</v>
+      </c>
+      <c r="P111">
+        <v>0.25548975541137192</v>
+      </c>
+      <c r="R111">
+        <v>0.31387558282306083</v>
+      </c>
+      <c r="S111">
+        <v>0.22520028623930349</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>0.42567744911675109</v>
+      </c>
+      <c r="D112">
+        <v>0.45650565899673845</v>
+      </c>
+      <c r="F112">
+        <v>0.60853104693427928</v>
+      </c>
+      <c r="H112">
+        <v>0.60269309387651959</v>
+      </c>
+      <c r="J112">
+        <v>0.28462804921697404</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0.35162929793444631</v>
+      </c>
+      <c r="P112">
+        <v>0.51841659442133481</v>
+      </c>
+      <c r="R112">
+        <v>0.53306715236738966</v>
+      </c>
+      <c r="S112">
+        <v>0.33298602549929557</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>0.49345154271701624</v>
+      </c>
+      <c r="D113">
+        <v>0.50520851966164082</v>
+      </c>
+      <c r="F113">
+        <v>0.97239793545534248</v>
+      </c>
+      <c r="H113">
+        <v>1.1114164636704458</v>
+      </c>
+      <c r="J113">
+        <v>0.30834826669961551</v>
+      </c>
+      <c r="L113">
+        <v>0.48416629536518557</v>
+      </c>
+      <c r="N113">
+        <v>0.74465732396245032</v>
+      </c>
+      <c r="P113">
+        <v>1.3087157738627604</v>
+      </c>
+      <c r="R113">
+        <v>0.71969610735112655</v>
+      </c>
+      <c r="S113">
+        <v>0.61822510301584288</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>0.66631932644114966</v>
+      </c>
+      <c r="D114">
+        <v>0.57553145993181976</v>
+      </c>
+      <c r="F114">
+        <v>0.71295787629686858</v>
+      </c>
+      <c r="H114">
+        <v>0.94573575337507176</v>
+      </c>
+      <c r="J114">
+        <v>5.0009386483520782E-2</v>
+      </c>
+      <c r="L114">
+        <v>0.26442916869636324</v>
+      </c>
+      <c r="N114">
+        <v>0.38788822098306441</v>
+      </c>
+      <c r="P114">
+        <v>0.80360745207274131</v>
+      </c>
+      <c r="R114">
+        <v>0.36833736854168103</v>
+      </c>
+      <c r="S114">
+        <v>0.53682734090774731</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>0.38915416631048327</v>
+      </c>
+      <c r="D115">
+        <v>0.10914571971667866</v>
+      </c>
+      <c r="F115">
+        <v>0.46198234114234099</v>
+      </c>
+      <c r="H115">
+        <v>0.42464671138400917</v>
+      </c>
+      <c r="J115">
+        <v>0.16499996226064695</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0.18408027704548083</v>
+      </c>
+      <c r="P115">
+        <v>0.25250260182121342</v>
+      </c>
+      <c r="R115">
+        <v>0.40921745959388711</v>
+      </c>
+      <c r="S115">
+        <v>0.32115311803412316</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>0.64192029109617554</v>
+      </c>
+      <c r="D116">
+        <v>0.65796692451799621</v>
+      </c>
+      <c r="F116">
+        <v>0.77034831269466808</v>
+      </c>
+      <c r="H116">
+        <v>1.3087531637604692</v>
+      </c>
+      <c r="J116">
+        <v>0.30834815112923236</v>
+      </c>
+      <c r="L116">
+        <v>0.22974529266695476</v>
+      </c>
+      <c r="N116">
+        <v>0.30281609257514885</v>
+      </c>
+      <c r="P116">
+        <v>0.59610678631543712</v>
+      </c>
+      <c r="R116">
+        <v>0.63679123018509687</v>
+      </c>
+      <c r="S116">
+        <v>0.58592193679201354</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>0.67301121267525243</v>
+      </c>
+      <c r="D117">
+        <v>0.16130309289080763</v>
+      </c>
+      <c r="F117">
+        <v>0.77730446760062899</v>
+      </c>
+      <c r="H117">
+        <v>0.99888598365612569</v>
+      </c>
+      <c r="J117">
+        <v>0.37975882601305488</v>
+      </c>
+      <c r="L117">
+        <v>0.10016785613021513</v>
+      </c>
+      <c r="N117">
+        <v>0.48579744196715358</v>
+      </c>
+      <c r="P117">
+        <v>0.88423163098752788</v>
+      </c>
+      <c r="R117">
+        <v>0.37290431724571715</v>
+      </c>
+      <c r="S117">
+        <v>0.66514122112756358</v>
+      </c>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>9.7882755683806902E-2</v>
+      </c>
+      <c r="D118">
+        <v>0.2226221139918817</v>
+      </c>
+      <c r="F118">
+        <v>0.6843868563545461</v>
+      </c>
+      <c r="H118">
+        <v>0.64912356862404208</v>
+      </c>
+      <c r="J118">
+        <v>0.36569080212178012</v>
+      </c>
+      <c r="L118">
+        <v>0.18870251773328606</v>
+      </c>
+      <c r="N118">
+        <v>0.17662652129990955</v>
+      </c>
+      <c r="P118">
+        <v>0.53430685503153486</v>
+      </c>
+      <c r="R118">
+        <v>0.43025690002797234</v>
+      </c>
+      <c r="S118">
+        <v>0.51695945359303497</v>
+      </c>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>0.85135529637891549</v>
+      </c>
+      <c r="D119">
+        <v>0.42978883582481359</v>
+      </c>
+      <c r="F119">
+        <v>0.51857540182143147</v>
+      </c>
+      <c r="H119">
+        <v>0.7778631027321582</v>
+      </c>
+      <c r="J119">
+        <v>0.30294549621280853</v>
+      </c>
+      <c r="L119">
+        <v>0.21793066199172645</v>
+      </c>
+      <c r="N119">
+        <v>0.47902879415471655</v>
+      </c>
+      <c r="P119">
+        <v>0.49635990166340915</v>
+      </c>
+      <c r="R119">
+        <v>0.6365174544431289</v>
+      </c>
+      <c r="S119">
+        <v>0.28717965739095924</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0.45948617217474552</v>
+      </c>
+      <c r="F120">
+        <v>0.45390507970352395</v>
+      </c>
+      <c r="H120">
+        <v>0.66725259222130817</v>
+      </c>
+      <c r="J120">
+        <v>0.25828154774927736</v>
+      </c>
+      <c r="L120">
+        <v>1.5566433633775589E-2</v>
+      </c>
+      <c r="N120">
+        <v>0.21743080381461846</v>
+      </c>
+      <c r="P120">
+        <v>0.36526734591949928</v>
+      </c>
+      <c r="R120">
+        <v>0.49916007232953613</v>
+      </c>
+      <c r="S120">
+        <v>0.3381286151169946</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>0.60618760080179124</v>
+      </c>
+      <c r="D121">
+        <v>0.43204830777830394</v>
+      </c>
+      <c r="F121">
+        <v>0.6393740783809404</v>
+      </c>
+      <c r="H121">
+        <v>0.91998470332740445</v>
+      </c>
+      <c r="J121">
+        <v>3.292123539836822E-3</v>
+      </c>
+      <c r="L121">
+        <v>0.2271253192852862</v>
+      </c>
+      <c r="N121">
+        <v>0.50349206933680257</v>
+      </c>
+      <c r="P121">
+        <v>0.67633635641809575</v>
+      </c>
+      <c r="R121">
+        <v>0.66968969941352929</v>
+      </c>
+      <c r="S121">
+        <v>0.39567892402793037</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>0.67442785264867744</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.5769496483370572</v>
+      </c>
+      <c r="F122">
+        <v>0.58562748329306147</v>
+      </c>
+      <c r="H122">
+        <v>0.99694001004269828</v>
+      </c>
+      <c r="J122">
+        <v>0.49328857929519132</v>
+      </c>
+      <c r="L122">
+        <v>0.29386687695672542</v>
+      </c>
+      <c r="N122">
+        <v>0.32242790656920534</v>
+      </c>
+      <c r="P122">
+        <v>0.39294584693984153</v>
+      </c>
+      <c r="R122">
+        <v>0.65412340386812384</v>
+      </c>
+      <c r="S122">
+        <v>0.59186204432941403</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>0.65417386613773265</v>
+      </c>
+      <c r="D123">
+        <v>0.81089651152009767</v>
+      </c>
+      <c r="F123">
+        <v>0.98300762610322401</v>
+      </c>
+      <c r="H123">
+        <v>0.99211571473138327</v>
+      </c>
+      <c r="J123">
+        <v>0.49229782527735122</v>
+      </c>
+      <c r="L123">
+        <v>0.17173203777858467</v>
+      </c>
+      <c r="N123">
+        <v>0.77328594531765393</v>
+      </c>
+      <c r="P123">
+        <v>0.84872222942240472</v>
+      </c>
+      <c r="R123">
+        <v>0.46820083489105108</v>
+      </c>
+      <c r="S123">
+        <v>0.55728388395946982</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>0.803172056757959</v>
+      </c>
+      <c r="D124">
+        <v>0.34186477426767031</v>
+      </c>
+      <c r="F124">
+        <v>0.83854945655410118</v>
+      </c>
+      <c r="H124">
+        <v>0.72812643392307341</v>
+      </c>
+      <c r="J124">
+        <v>0.16296371539757543</v>
+      </c>
+      <c r="L124">
+        <v>1.0945977659697436E-2</v>
+      </c>
+      <c r="N124">
+        <v>0.31638253827589469</v>
+      </c>
+      <c r="P124">
+        <v>0.37286378299993345</v>
+      </c>
+      <c r="R124">
+        <v>0.50701768519718526</v>
+      </c>
+      <c r="S124">
+        <v>0.57891086646607792</v>
+      </c>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>0.79017312666559258</v>
+      </c>
+      <c r="D125">
+        <v>0.77812346536702048</v>
+      </c>
+      <c r="F125">
+        <v>1.5505538403158792</v>
+      </c>
+      <c r="H125">
+        <v>1.3955669445900689</v>
+      </c>
+      <c r="J125">
+        <v>0.18374128285659588</v>
+      </c>
+      <c r="L125">
+        <v>1.0220702495253733</v>
+      </c>
+      <c r="N125">
+        <v>0.69237396626801129</v>
+      </c>
+      <c r="P125">
+        <v>0.61291683026275645</v>
+      </c>
+      <c r="R125">
+        <v>1.0267574179523549</v>
+      </c>
+      <c r="S125">
+        <v>0.4787118548227724</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>0.27654090866988218</v>
+      </c>
+      <c r="D126">
+        <v>0.81300735373459143</v>
+      </c>
+      <c r="F126">
+        <v>1.2966674719711084</v>
+      </c>
+      <c r="H126">
+        <v>1.147988537302943</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0.527681305700887</v>
+      </c>
+      <c r="N126">
+        <v>0.82074209600056536</v>
+      </c>
+      <c r="P126">
+        <v>0.9517552612958271</v>
+      </c>
+      <c r="R126">
+        <v>0.32581408162349373</v>
+      </c>
+      <c r="S126">
+        <v>0.48432855275332953</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>0.38374270020953966</v>
+      </c>
+      <c r="D127">
+        <v>0.37825180535309111</v>
+      </c>
+      <c r="F127">
+        <v>0.49143508965214294</v>
+      </c>
+      <c r="H127">
+        <v>0.34477505929280816</v>
+      </c>
+      <c r="J127">
+        <v>0.29712826199007741</v>
+      </c>
+      <c r="L127">
+        <v>0.21981291989847157</v>
+      </c>
+      <c r="N127">
+        <v>0.18589335973686213</v>
+      </c>
+      <c r="P127">
+        <v>0.1752658213050263</v>
+      </c>
+      <c r="R127">
+        <v>0.70053190829851342</v>
+      </c>
+      <c r="S127">
+        <v>0.54926661128538301</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>1.1182182918081991</v>
+      </c>
+      <c r="D128">
+        <v>0.50298805671673297</v>
+      </c>
+      <c r="F128">
+        <v>0.48510085697573957</v>
+      </c>
+      <c r="H128">
+        <v>0.58115511958487387</v>
+      </c>
+      <c r="J128">
+        <v>0.73373293337554713</v>
+      </c>
+      <c r="L128">
+        <v>0.15839115370649609</v>
+      </c>
+      <c r="N128">
+        <v>0.13236527808335077</v>
+      </c>
+      <c r="P128">
+        <v>0.44413916956886484</v>
+      </c>
+      <c r="R128">
+        <v>0.99908954153318341</v>
+      </c>
+      <c r="S128">
+        <v>0.53053434431786273</v>
+      </c>
+    </row>
+    <row r="129" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>0.7761436556606115</v>
+      </c>
+      <c r="D129">
+        <v>0.90198466410958178</v>
+      </c>
+      <c r="F129">
+        <v>0.54042962997282962</v>
+      </c>
+      <c r="H129">
+        <v>0.73907805948366301</v>
+      </c>
+      <c r="J129">
+        <v>0.67727448728683148</v>
+      </c>
+      <c r="L129">
+        <v>0.43750641201719581</v>
+      </c>
+      <c r="N129">
+        <v>0.40565316530263068</v>
+      </c>
+      <c r="P129">
+        <v>0.61116865839088985</v>
+      </c>
+      <c r="R129">
+        <v>1.2546042420251053</v>
+      </c>
+      <c r="S129">
+        <v>0.69762747090185229</v>
+      </c>
+    </row>
+    <row r="130" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>0.40372758055959979</v>
+      </c>
+      <c r="D130">
+        <v>0.35448041764238297</v>
+      </c>
+      <c r="F130">
+        <v>0.36340440018442899</v>
+      </c>
+      <c r="H130">
+        <v>0.27821341869508237</v>
+      </c>
+      <c r="J130">
+        <v>0.48057298578277374</v>
+      </c>
+      <c r="L130">
+        <v>6.4120467153960178E-2</v>
+      </c>
+      <c r="N130">
+        <v>0.28969891474456755</v>
+      </c>
+      <c r="P130">
+        <v>0.42397180021516712</v>
+      </c>
+      <c r="R130">
+        <v>0.41488255873715729</v>
+      </c>
+      <c r="S130">
+        <v>0.30630743780893094</v>
+      </c>
+    </row>
+    <row r="131" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>1.4222489396748195</v>
+      </c>
+      <c r="D131">
+        <v>1.3454837021167225</v>
+      </c>
+      <c r="F131">
+        <v>1.127313310614011</v>
+      </c>
+      <c r="H131">
+        <v>1.8081244775224723</v>
+      </c>
+      <c r="J131">
+        <v>1.2769158647872989</v>
+      </c>
+      <c r="L131">
+        <v>0.98300491075507446</v>
+      </c>
+      <c r="N131">
+        <v>1.2825515774445118</v>
+      </c>
+      <c r="P131">
+        <v>1.4875719727470598</v>
+      </c>
+      <c r="R131">
+        <v>1.8393770658942894</v>
+      </c>
+      <c r="S131">
+        <v>1.2925421589732073</v>
+      </c>
+    </row>
+    <row r="132" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>0.38306952651926757</v>
+      </c>
+      <c r="D132">
+        <v>0.44240931538717682</v>
+      </c>
+      <c r="F132">
+        <v>0.30601577102839472</v>
+      </c>
+      <c r="H132">
+        <v>0.43518177708672895</v>
+      </c>
+      <c r="J132">
+        <v>0.39903408898929726</v>
+      </c>
+      <c r="L132">
+        <v>0.24144776289196365</v>
+      </c>
+      <c r="N132">
+        <v>0.12341796384151325</v>
+      </c>
+      <c r="P132">
+        <v>0.25494316635754327</v>
+      </c>
+      <c r="R132">
+        <v>0.63529361899336856</v>
+      </c>
+      <c r="S132">
+        <v>0.23038153205018139</v>
+      </c>
+    </row>
+    <row r="133" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>0.55030938158786935</v>
+      </c>
+      <c r="D133">
+        <v>0.44019207709689401</v>
+      </c>
+      <c r="F133">
+        <v>0.49682119425542409</v>
+      </c>
+      <c r="H133">
+        <v>1.1949390382472873</v>
+      </c>
+      <c r="J133">
+        <v>0.36582594444988464</v>
+      </c>
+      <c r="L133">
+        <v>0.23963446967247493</v>
+      </c>
+      <c r="N133">
+        <v>0.64324395232438047</v>
+      </c>
+      <c r="P133">
+        <v>0.2876722199537729</v>
+      </c>
+      <c r="R133">
+        <v>1.107732045428931</v>
+      </c>
+      <c r="S133">
+        <v>0.4000990316698107</v>
+      </c>
+    </row>
+    <row r="134" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>1.0671474718153255</v>
+      </c>
+      <c r="D134">
+        <v>0.63238985876626486</v>
+      </c>
+      <c r="F134">
+        <v>0.28078443004510045</v>
+      </c>
+      <c r="H134">
+        <v>0.53748972054033928</v>
+      </c>
+      <c r="J134">
+        <v>0.57698284215499129</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0.18513442242142827</v>
+      </c>
+      <c r="P134">
+        <v>0.25312258115044961</v>
+      </c>
+      <c r="R134">
+        <v>1.1244708213319514</v>
+      </c>
+      <c r="S134">
+        <v>0.105648266260293</v>
+      </c>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>1.2454274061304293</v>
+      </c>
+      <c r="D135">
+        <v>0.26171822076459844</v>
+      </c>
+      <c r="F135">
+        <v>0.60584824828191941</v>
+      </c>
+      <c r="H135">
+        <v>0.56398828294720316</v>
+      </c>
+      <c r="J135">
+        <v>0.91279018159563086</v>
+      </c>
+      <c r="L135">
+        <v>0.34431690236256524</v>
+      </c>
+      <c r="N135">
+        <v>0.17379360607716995</v>
+      </c>
+      <c r="P135">
+        <v>0.25545791344891544</v>
+      </c>
+      <c r="R135">
+        <v>0.96913294743677791</v>
+      </c>
+      <c r="S135">
+        <v>0.38598999285203717</v>
+      </c>
+    </row>
+    <row r="136" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1.0345865446566296</v>
+      </c>
+      <c r="D136">
+        <v>0.32020315108673225</v>
+      </c>
+      <c r="F136">
+        <v>0.60732720121630701</v>
+      </c>
+      <c r="H136">
+        <v>0.65540753653952144</v>
+      </c>
+      <c r="J136">
+        <v>0.99635143245344127</v>
+      </c>
+      <c r="L136">
+        <v>0.26687132282773057</v>
+      </c>
+      <c r="N136">
+        <v>0.12441264173329289</v>
+      </c>
+      <c r="P136">
+        <v>8.8607008080198446E-2</v>
+      </c>
+      <c r="R136">
+        <v>0.44023424416853291</v>
+      </c>
+      <c r="S136">
+        <v>0.23798280714258949</v>
+      </c>
+    </row>
+    <row r="137" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>1.6510971218901691</v>
+      </c>
+      <c r="D137">
+        <v>0.21764391069759403</v>
+      </c>
+      <c r="F137">
+        <v>0.61441741234582303</v>
+      </c>
+      <c r="H137">
+        <v>0.74268394518243264</v>
+      </c>
+      <c r="J137">
+        <v>0.50504882228853321</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0.3659120678201922</v>
+      </c>
+      <c r="P137">
+        <v>0.54635358207121942</v>
+      </c>
+      <c r="R137">
+        <v>0.89333647084303014</v>
+      </c>
+      <c r="S137">
+        <v>0.49909310698838877</v>
+      </c>
+    </row>
+    <row r="138" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>1.3078438152513006</v>
+      </c>
+      <c r="D138">
+        <v>1.2061162616986687</v>
+      </c>
+      <c r="F138">
+        <v>2.3323787818292621</v>
+      </c>
+      <c r="H138">
+        <v>2.459514344062645</v>
+      </c>
+      <c r="J138">
+        <v>0.73988885428984619</v>
+      </c>
+      <c r="L138">
+        <v>7.0301858605386874E-2</v>
+      </c>
+      <c r="N138">
+        <v>1.0138368576597505</v>
+      </c>
+      <c r="P138">
+        <v>2.0826925611845861</v>
+      </c>
+      <c r="R138">
+        <v>0.58782287752384632</v>
+      </c>
+      <c r="S138">
+        <v>1.1187165325900694</v>
+      </c>
+    </row>
+    <row r="139" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>0.68401490558711786</v>
+      </c>
+      <c r="D139">
+        <v>0.82997954574450161</v>
+      </c>
+      <c r="F139">
+        <v>1.4647336716920512</v>
+      </c>
+      <c r="H139">
+        <v>1.0163336810206132</v>
+      </c>
+      <c r="J139">
+        <v>0.42187759365034727</v>
+      </c>
+      <c r="L139">
+        <v>0.4223577404929782</v>
+      </c>
+      <c r="N139">
+        <v>0.6298726330475416</v>
+      </c>
+      <c r="P139">
+        <v>1.1578055185791625</v>
+      </c>
+      <c r="R139">
+        <v>0.97449231330632702</v>
+      </c>
+      <c r="S139">
+        <v>0.6070656580229512</v>
+      </c>
+    </row>
+    <row r="140" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>1.375327370197484</v>
+      </c>
+      <c r="D140">
+        <v>0.61906961669280658</v>
+      </c>
+      <c r="F140">
+        <v>0.60826593449988264</v>
+      </c>
+      <c r="H140">
+        <v>0.81092811080852523</v>
+      </c>
+      <c r="J140">
+        <v>0.40504494704333022</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0.31861548949993851</v>
+      </c>
+      <c r="P140">
+        <v>0.5671933151285079</v>
+      </c>
+      <c r="R140">
+        <v>0.52844907554009102</v>
+      </c>
+      <c r="S140">
+        <v>0.52574815499186001</v>
+      </c>
+    </row>
+    <row r="141" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>0.79585881388685753</v>
+      </c>
+      <c r="D141">
+        <v>0.19306928944142387</v>
+      </c>
+      <c r="F141">
+        <v>0.56030721510356496</v>
+      </c>
+      <c r="H141">
+        <v>0.44204565125998468</v>
+      </c>
+      <c r="J141">
+        <v>0.25401064795678641</v>
+      </c>
+      <c r="L141">
+        <v>7.1186572410698826E-2</v>
+      </c>
+      <c r="N141">
+        <v>0.35725767419513249</v>
+      </c>
+      <c r="P141">
+        <v>0.43224204141186112</v>
+      </c>
+      <c r="R141">
+        <v>0.69685118650175404</v>
+      </c>
+      <c r="S141">
+        <v>0.33093807298125127</v>
+      </c>
+    </row>
+    <row r="142" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>0.81532631250134358</v>
+      </c>
+      <c r="D142">
+        <v>0.37876386725995254</v>
+      </c>
+      <c r="F142">
+        <v>0.81532631250134358</v>
+      </c>
+      <c r="H142">
+        <v>1.0432546914344183</v>
+      </c>
+      <c r="J142">
+        <v>0.38570548129608612</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0.53646866114342362</v>
+      </c>
+      <c r="P142">
+        <v>0.52968371547963899</v>
+      </c>
+      <c r="R142">
+        <v>0.48534656610646637</v>
+      </c>
+      <c r="S142">
+        <v>0.38145133241630957</v>
+      </c>
+    </row>
+    <row r="143" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>0.89163013699983507</v>
+      </c>
+      <c r="D143">
+        <v>0.57815175199147195</v>
+      </c>
+      <c r="F143">
+        <v>0.42590775851593227</v>
+      </c>
+      <c r="H143">
+        <v>0.58546262513695535</v>
+      </c>
+      <c r="J143">
+        <v>0.3611966516200994</v>
+      </c>
+      <c r="L143">
+        <v>5.2855636930184129E-2</v>
+      </c>
+      <c r="N143">
+        <v>0.21448521079519578</v>
+      </c>
+      <c r="P143">
+        <v>0.26200588624083793</v>
+      </c>
+      <c r="R143">
+        <v>1.0204595772932183</v>
+      </c>
+      <c r="S143">
+        <v>0.65965810800530733</v>
+      </c>
+    </row>
+    <row r="144" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>0.50487765611279478</v>
+      </c>
+      <c r="D144">
+        <v>0.44725883848481629</v>
+      </c>
+      <c r="F144">
+        <v>0.67753777514896363</v>
+      </c>
+      <c r="H144">
+        <v>0.51011666983900594</v>
+      </c>
+      <c r="J144">
+        <v>0.295585774434729</v>
+      </c>
+      <c r="L144">
+        <v>0.26583602982372906</v>
+      </c>
+      <c r="N144">
+        <v>0.237429622065605</v>
+      </c>
+      <c r="P144">
+        <v>0.4615498759273392</v>
+      </c>
+      <c r="R144">
+        <v>0.68410979236765834</v>
+      </c>
+      <c r="S144">
+        <v>0.27721305963154474</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>0.65464955841367511</v>
+      </c>
+      <c r="D145">
+        <v>0.35843545853716052</v>
+      </c>
+      <c r="F145">
+        <v>0.54697516031265414</v>
+      </c>
+      <c r="H145">
+        <v>0.82476994101886913</v>
+      </c>
+      <c r="J145">
+        <v>0.24984009447762978</v>
+      </c>
+      <c r="L145">
+        <v>0.35186515261360851</v>
+      </c>
+      <c r="N145">
+        <v>0.53462073891794104</v>
+      </c>
+      <c r="P145">
+        <v>0.63608423244506918</v>
+      </c>
+      <c r="R145">
+        <v>0.82539889338077921</v>
+      </c>
+      <c r="S145">
+        <v>0.44603953751785336</v>
+      </c>
+    </row>
+    <row r="146" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>0.578339041225293</v>
+      </c>
+      <c r="D146">
+        <v>0.34255412035711141</v>
+      </c>
+      <c r="F146">
+        <v>0.31976352592058033</v>
+      </c>
+      <c r="H146">
+        <v>0.47247662931340195</v>
+      </c>
+      <c r="J146">
+        <v>0.2362282392391864</v>
+      </c>
+      <c r="L146">
+        <v>6.3454979558493857E-2</v>
+      </c>
+      <c r="N146">
+        <v>0.11087996983823011</v>
+      </c>
+      <c r="P146">
+        <v>8.2850158289851691E-2</v>
+      </c>
+      <c r="R146">
+        <v>0.94213214172042459</v>
+      </c>
+      <c r="S146">
+        <v>0.17357929308251521</v>
+      </c>
+    </row>
+    <row r="147" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>0.59586617838743716</v>
+      </c>
+      <c r="D147">
+        <v>0.3579971639061702</v>
+      </c>
+      <c r="F147">
+        <v>0.35847462077987807</v>
+      </c>
+      <c r="H147">
+        <v>0.82514096914196222</v>
+      </c>
+      <c r="J147">
+        <v>3.4376894906967526E-3</v>
+      </c>
+      <c r="L147">
+        <v>5.4334592227957008E-2</v>
+      </c>
+      <c r="N147">
+        <v>0.55174916325682888</v>
+      </c>
+      <c r="P147">
+        <v>0.49044370067273674</v>
+      </c>
+      <c r="R147">
+        <v>0.27663851262634703</v>
+      </c>
+      <c r="S147">
+        <v>0.2097945503072435</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>1.6453496460081634</v>
+      </c>
+      <c r="D148">
+        <v>1.0834190380804454</v>
+      </c>
+      <c r="F148">
+        <v>1.3765714449825677</v>
+      </c>
+      <c r="H148">
+        <v>1.4583953231418618</v>
+      </c>
+      <c r="J148">
+        <v>1.0477171789253572</v>
+      </c>
+      <c r="L148">
+        <v>0.82427094380064014</v>
+      </c>
+      <c r="N148">
+        <v>0.94676120399394581</v>
+      </c>
+      <c r="P148">
+        <v>1.3665356352918405</v>
+      </c>
+      <c r="R148">
+        <v>1.3197410035104973</v>
+      </c>
+      <c r="S148">
+        <v>0.5777636991738262</v>
+      </c>
+    </row>
+    <row r="149" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>0.92486341137581995</v>
+      </c>
+      <c r="D149">
+        <v>0.32505433347185253</v>
+      </c>
+      <c r="F149">
+        <v>0.39365287694719353</v>
+      </c>
+      <c r="H149">
+        <v>0.6049472079671665</v>
+      </c>
+      <c r="J149">
+        <v>0.10384431285623241</v>
+      </c>
+      <c r="L149">
+        <v>0.15017762605771112</v>
+      </c>
+      <c r="N149">
+        <v>0.17893312588508797</v>
+      </c>
+      <c r="P149">
+        <v>0.25735721632338848</v>
+      </c>
+      <c r="R149">
+        <v>0.61909960129913566</v>
+      </c>
+      <c r="S149">
+        <v>0.39374301957988123</v>
+      </c>
+    </row>
+    <row r="150" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>0.60690889689309901</v>
+      </c>
+      <c r="D150">
+        <v>0.36089878347321663</v>
+      </c>
+      <c r="F150">
+        <v>1.307161531332528</v>
+      </c>
+      <c r="H150">
+        <v>1.423478770093338</v>
+      </c>
+      <c r="J150">
+        <v>0.32059198194119592</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0.99449546022028734</v>
+      </c>
+      <c r="P150">
+        <v>0.66043260446699426</v>
+      </c>
+      <c r="R150">
+        <v>1.0723259998023285</v>
+      </c>
+      <c r="S150">
+        <v>0.43124785582418257</v>
+      </c>
+    </row>
+    <row r="151" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>1.063695749093799</v>
+      </c>
+      <c r="D151">
+        <v>0.56688441334392992</v>
+      </c>
+      <c r="F151">
+        <v>0.30898059663881833</v>
+      </c>
+      <c r="H151">
+        <v>0.6426757642133013</v>
+      </c>
+      <c r="J151">
+        <v>0.39136249975770027</v>
+      </c>
+      <c r="L151">
+        <v>4.4776987342262889E-2</v>
+      </c>
+      <c r="N151">
+        <v>0.11368702630405707</v>
+      </c>
+      <c r="P151">
+        <v>0.41161875593634301</v>
+      </c>
+      <c r="R151">
+        <v>0.48353331136482586</v>
+      </c>
+      <c r="S151">
+        <v>0.48905774486809206</v>
+      </c>
+    </row>
+    <row r="152" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>0.63686217825773084</v>
+      </c>
+      <c r="D152">
+        <v>0.56015712462606193</v>
+      </c>
+      <c r="F152">
+        <v>0.62375564520962867</v>
+      </c>
+      <c r="H152">
+        <v>0.94472755169842526</v>
+      </c>
+      <c r="J152">
+        <v>0.16184345850051812</v>
+      </c>
+      <c r="L152">
+        <v>7.170751215776984E-2</v>
+      </c>
+      <c r="N152">
+        <v>0.29781022388865669</v>
+      </c>
+      <c r="P152">
+        <v>0.83687195710090612</v>
+      </c>
+      <c r="R152">
+        <v>0.81760259045639327</v>
+      </c>
+      <c r="S152">
+        <v>0.52776921161259893</v>
+      </c>
+    </row>
+    <row r="153" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>1.5868950089645022</v>
+      </c>
+      <c r="D153">
+        <v>0.84892114892181847</v>
+      </c>
+      <c r="F153">
+        <v>0.94817147810207691</v>
+      </c>
+      <c r="H153">
+        <v>1.7728351736886474</v>
+      </c>
+      <c r="J153">
+        <v>0.85078279351434949</v>
+      </c>
+      <c r="L153">
+        <v>8.4693614233828374E-2</v>
+      </c>
+      <c r="N153">
+        <v>1.2367151752183361</v>
+      </c>
+      <c r="P153">
+        <v>1.2373095557207636</v>
+      </c>
+      <c r="R153">
+        <v>1.1708286572596898</v>
+      </c>
+      <c r="S153">
+        <v>0.55443364678120488</v>
+      </c>
+    </row>
+    <row r="154" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>1.1194491929659691</v>
+      </c>
+      <c r="D154">
+        <v>0.47076359445372934</v>
+      </c>
+      <c r="F154">
+        <v>0.6191750127968656</v>
+      </c>
+      <c r="H154">
+        <v>0.5863485103592887</v>
+      </c>
+      <c r="J154">
+        <v>0.58119757176169606</v>
+      </c>
+      <c r="L154">
+        <v>0.10575520808182266</v>
+      </c>
+      <c r="N154">
+        <v>0.29641505404729135</v>
+      </c>
+      <c r="P154">
+        <v>6.4118454417949305E-2</v>
+      </c>
+      <c r="R154">
+        <v>1.1189233679841291</v>
+      </c>
+      <c r="S154">
+        <v>0.36050131509901318</v>
+      </c>
+    </row>
+    <row r="155" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>1.1822753418523697</v>
+      </c>
+      <c r="D155">
+        <v>1.1588733379345284</v>
+      </c>
+      <c r="F155">
+        <v>0.91779018811853486</v>
+      </c>
+      <c r="H155">
+        <v>1.6950811538332315</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0.30719081342182097</v>
+      </c>
+      <c r="N155">
+        <v>0.64540263436586487</v>
+      </c>
+      <c r="P155">
+        <v>1.0295464741780087</v>
+      </c>
+      <c r="R155">
+        <v>0.96664337002807221</v>
+      </c>
+      <c r="S155">
+        <v>0.96072474491052484</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>0.4954731507508971</v>
+      </c>
+      <c r="D156">
+        <v>0.29482779793900959</v>
+      </c>
+      <c r="F156">
+        <v>0.4428702245197324</v>
+      </c>
+      <c r="H156">
+        <v>0.51519924808758388</v>
+      </c>
+      <c r="J156">
+        <v>0.23284530581736149</v>
+      </c>
+      <c r="L156">
+        <v>6.8461161344971724E-2</v>
+      </c>
+      <c r="N156">
+        <v>0.44374049351988032</v>
+      </c>
+      <c r="P156">
+        <v>0.46327319774542314</v>
+      </c>
+      <c r="R156">
+        <v>0.34443313094744255</v>
+      </c>
+      <c r="S156">
+        <v>0.12415837735444026</v>
+      </c>
+    </row>
+    <row r="157" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>0.27670953766321454</v>
+      </c>
+      <c r="D157">
+        <v>1.8571179971438933E-2</v>
+      </c>
+      <c r="F157">
+        <v>0.38518234883982633</v>
+      </c>
+      <c r="H157">
+        <v>0.46040658879159069</v>
+      </c>
+      <c r="J157">
+        <v>0.16183755092589494</v>
+      </c>
+      <c r="L157">
+        <v>0.15532354513491176</v>
+      </c>
+      <c r="N157">
+        <v>0.13330745825477466</v>
+      </c>
+      <c r="P157">
+        <v>0.27021641009591557</v>
+      </c>
+      <c r="R157">
+        <v>0.31464527010627502</v>
+      </c>
+      <c r="S157">
+        <v>0.35198597317418945</v>
+      </c>
+    </row>
+    <row r="158" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>0.44893138608778521</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0.7648137167656367</v>
+      </c>
+      <c r="H158">
+        <v>1.0166461739419883</v>
+      </c>
+      <c r="J158">
+        <v>0.10442070286002095</v>
+      </c>
+      <c r="L158">
+        <v>0.26726265397444021</v>
+      </c>
+      <c r="N158">
+        <v>0.63040602767536802</v>
+      </c>
+      <c r="P158">
+        <v>0.51744534168181378</v>
+      </c>
+      <c r="R158">
+        <v>0.61672264560913859</v>
+      </c>
+      <c r="S158">
+        <v>0.39681807992065582</v>
+      </c>
+    </row>
+    <row r="159" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>0.62307653274245367</v>
+      </c>
+      <c r="D159">
+        <v>0.24971134081191351</v>
+      </c>
+      <c r="F159">
+        <v>0.30036579818160292</v>
+      </c>
+      <c r="H159">
+        <v>0.31968393042979726</v>
+      </c>
+      <c r="J159">
+        <v>0.24267847238975979</v>
+      </c>
+      <c r="L159">
+        <v>0.10371255331403895</v>
+      </c>
+      <c r="N159">
+        <v>0.29475730817406259</v>
+      </c>
+      <c r="P159">
+        <v>0.29814020690876947</v>
+      </c>
+      <c r="R159">
+        <v>0.62236434353514702</v>
+      </c>
+      <c r="S159">
+        <v>0.19246913327463708</v>
+      </c>
+    </row>
+    <row r="160" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>0.8166378205834478</v>
+      </c>
+      <c r="D160">
+        <v>0.73783375402205509</v>
+      </c>
+      <c r="F160">
+        <v>1.328671029212438</v>
+      </c>
+      <c r="H160">
+        <v>0.9664021029457841</v>
+      </c>
+      <c r="J160">
+        <v>0.17791232204198551</v>
+      </c>
+      <c r="L160">
+        <v>0.19684827600828769</v>
+      </c>
+      <c r="N160">
+        <v>0.64828225412844254</v>
+      </c>
+      <c r="P160">
+        <v>0.59492109096579526</v>
+      </c>
+      <c r="R160">
+        <v>1.1474686765585456</v>
+      </c>
+      <c r="S160">
+        <v>0.49862241718235717</v>
+      </c>
+    </row>
+    <row r="161" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>1.4336584296731656</v>
+      </c>
+      <c r="D161">
+        <v>1.344848555394722</v>
+      </c>
+      <c r="F161">
+        <v>0.95461876013632385</v>
+      </c>
+      <c r="H161">
+        <v>1.2797500553168217</v>
+      </c>
+      <c r="J161">
+        <v>1.0860974561948302</v>
+      </c>
+      <c r="L161">
+        <v>0.2756578333350147</v>
+      </c>
+      <c r="N161">
+        <v>0.94219796166073877</v>
+      </c>
+      <c r="P161">
+        <v>0.45299793914949804</v>
+      </c>
+      <c r="R161">
+        <v>1.2976588426122873</v>
+      </c>
+      <c r="S161">
+        <v>1.0501400602327109</v>
+      </c>
+    </row>
+    <row r="162" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>0.77845696213070181</v>
+      </c>
+      <c r="D162">
+        <v>0.29292865960392839</v>
+      </c>
+      <c r="F162">
+        <v>0.26884599531914172</v>
+      </c>
+      <c r="H162">
+        <v>0.46734553124219952</v>
+      </c>
+      <c r="J162">
+        <v>0.27669881457376355</v>
+      </c>
+      <c r="L162">
+        <v>1.3012655989982179E-2</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0.20354630850684877</v>
+      </c>
+      <c r="R162">
+        <v>0.40047322486711912</v>
+      </c>
+      <c r="S162">
+        <v>0.21691871407001379</v>
+      </c>
+    </row>
+    <row r="163" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>0.65905556305664093</v>
+      </c>
+      <c r="D163">
+        <v>0.50515324722085164</v>
+      </c>
+      <c r="F163">
+        <v>0.99704457146286207</v>
+      </c>
+      <c r="H163">
+        <v>1.3394942266628662</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0.34905061233878915</v>
+      </c>
+      <c r="N163">
+        <v>0.75199903986078209</v>
+      </c>
+      <c r="P163">
+        <v>0.95173800201029146</v>
+      </c>
+      <c r="R163">
+        <v>0.51055403033440316</v>
+      </c>
+      <c r="S163">
+        <v>0.54684929314750175</v>
+      </c>
+    </row>
+    <row r="164" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>0.20161468516978157</v>
+      </c>
+      <c r="D164">
+        <v>0.27811631193415559</v>
+      </c>
+      <c r="F164">
+        <v>0.47138357954941623</v>
+      </c>
+      <c r="H164">
+        <v>0.9756658047548854</v>
+      </c>
+      <c r="J164">
+        <v>0.286856549138301</v>
+      </c>
+      <c r="L164">
+        <v>0.3108185477653963</v>
+      </c>
+      <c r="N164">
+        <v>0.54179650174461025</v>
+      </c>
+      <c r="P164">
+        <v>0.6187891530710149</v>
+      </c>
+      <c r="R164">
+        <v>0.45007311355728635</v>
+      </c>
+      <c r="S164">
+        <v>0.56084825475139921</v>
+      </c>
+    </row>
+    <row r="165" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>0.58622325605775016</v>
+      </c>
+      <c r="D165">
+        <v>9.3644247067201383E-2</v>
+      </c>
+      <c r="F165">
+        <v>0.37018039407818343</v>
+      </c>
+      <c r="H165">
+        <v>0.90543097052944477</v>
+      </c>
+      <c r="J165">
+        <v>0.21249135523679011</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0.24888360204083021</v>
+      </c>
+      <c r="P165">
+        <v>0.39029133587465747</v>
+      </c>
+      <c r="R165">
+        <v>0.68387899417478015</v>
+      </c>
+      <c r="S165">
+        <v>0.26161340030561964</v>
+      </c>
+    </row>
+    <row r="166" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>0.65925231401757556</v>
+      </c>
+      <c r="D166">
+        <v>0.33972422042462602</v>
+      </c>
+      <c r="F166">
+        <v>0.55719845572804105</v>
+      </c>
+      <c r="H166">
+        <v>0.47299914434766999</v>
+      </c>
+      <c r="J166">
+        <v>0.2929901878044664</v>
+      </c>
+      <c r="L166">
+        <v>0.1911314611751414</v>
+      </c>
+      <c r="N166">
+        <v>0.43689978720892453</v>
+      </c>
+      <c r="P166">
+        <v>0.49456119280081251</v>
+      </c>
+      <c r="R166">
+        <v>0.61954302116495552</v>
+      </c>
+      <c r="S166">
+        <v>0.41524017292567728</v>
+      </c>
+    </row>
+    <row r="167" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>0.63858693746581785</v>
+      </c>
+      <c r="D167">
+        <v>0.38427849040555501</v>
+      </c>
+      <c r="F167">
+        <v>0.52687117430150965</v>
+      </c>
+      <c r="H167">
+        <v>0.74925620820840855</v>
+      </c>
+      <c r="J167">
+        <v>0.27434284321634195</v>
+      </c>
+      <c r="L167">
+        <v>0.31078667208828353</v>
+      </c>
+      <c r="N167">
+        <v>0.40242488476985383</v>
+      </c>
+      <c r="P167">
+        <v>0.64161852891431082</v>
+      </c>
+      <c r="R167">
+        <v>0.32633301827077915</v>
+      </c>
+      <c r="S167">
+        <v>0.35345551258223229</v>
+      </c>
+    </row>
+    <row r="168" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>0.55953494374788426</v>
+      </c>
+      <c r="D168">
+        <v>0.26284762172711978</v>
+      </c>
+      <c r="F168">
+        <v>0.64280833994131648</v>
+      </c>
+      <c r="H168">
+        <v>0.76569924291271829</v>
+      </c>
+      <c r="J168">
+        <v>5.5138519565408009E-2</v>
+      </c>
+      <c r="L168">
+        <v>0.16563450715249303</v>
+      </c>
+      <c r="N168">
+        <v>0.5776955018134321</v>
+      </c>
+      <c r="P168">
+        <v>0.52834695253549935</v>
+      </c>
+      <c r="R168">
+        <v>0.89644796270285176</v>
+      </c>
+      <c r="S168">
+        <v>0.24946743828967036</v>
+      </c>
+    </row>
+    <row r="169" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>0.17543185310243348</v>
+      </c>
+      <c r="D169">
+        <v>0.28167653717233421</v>
+      </c>
+      <c r="F169">
+        <v>0.44843535484049007</v>
+      </c>
+      <c r="H169">
+        <v>0.71237159226089275</v>
+      </c>
+      <c r="J169">
+        <v>4.6420451017554029E-2</v>
+      </c>
+      <c r="L169">
+        <v>0.26561171017475182</v>
+      </c>
+      <c r="N169">
+        <v>0.34307768575818592</v>
+      </c>
+      <c r="P169">
+        <v>0.56364874600720061</v>
+      </c>
+      <c r="R169">
+        <v>0.35717136833888702</v>
+      </c>
+      <c r="S169">
+        <v>0.21751578640284869</v>
+      </c>
+    </row>
+    <row r="170" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>0.57887943572251066</v>
+      </c>
+      <c r="D170">
+        <v>0.16796368541279269</v>
+      </c>
+      <c r="F170">
+        <v>0.36882701316634592</v>
+      </c>
+      <c r="H170">
+        <v>0.93492891195528582</v>
+      </c>
+      <c r="J170">
+        <v>5.7403895147733149E-2</v>
+      </c>
+      <c r="L170">
+        <v>8.5485411138219169E-2</v>
+      </c>
+      <c r="N170">
+        <v>0.27391774932910068</v>
+      </c>
+      <c r="P170">
+        <v>0.48494274031327439</v>
+      </c>
+      <c r="R170">
+        <v>0.64721634147480911</v>
+      </c>
+      <c r="S170">
+        <v>0.60414385695598227</v>
+      </c>
+    </row>
+    <row r="171" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>1.3523817070561046</v>
+      </c>
+      <c r="D171">
+        <v>1.2810418702877298</v>
+      </c>
+      <c r="F171">
+        <v>1.8336088720312569</v>
+      </c>
+      <c r="H171">
+        <v>1.4004790848967092</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0.61908097612798796</v>
+      </c>
+      <c r="N171">
+        <v>0.50411257919194374</v>
+      </c>
+      <c r="P171">
+        <v>0.77560477039375775</v>
+      </c>
+      <c r="R171">
+        <v>1.0701666569535122</v>
+      </c>
+      <c r="S171">
+        <v>0.76786496246538949</v>
+      </c>
+    </row>
+    <row r="172" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>0.36462815941545323</v>
+      </c>
+      <c r="D172">
+        <v>0.21838169427221982</v>
+      </c>
+      <c r="F172">
+        <v>0.43999086645706359</v>
+      </c>
+      <c r="H172">
+        <v>0.90986334814606129</v>
+      </c>
+      <c r="J172">
+        <v>0.44272434264837873</v>
+      </c>
+      <c r="L172">
+        <v>9.5748511408141307E-2</v>
+      </c>
+      <c r="N172">
+        <v>0.57252603937962676</v>
+      </c>
+      <c r="P172">
+        <v>0.53198496478316615</v>
+      </c>
+      <c r="R172">
+        <v>0.49480310189170235</v>
+      </c>
+      <c r="S172">
+        <v>0.32509704389370214</v>
+      </c>
+    </row>
+    <row r="173" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>0.64639913269277693</v>
+      </c>
+      <c r="D173">
+        <v>6.1963401006036374E-2</v>
+      </c>
+      <c r="F173">
+        <v>0.67146184019576538</v>
+      </c>
+      <c r="H173">
+        <v>0.57448054917431746</v>
+      </c>
+      <c r="J173">
+        <v>8.9585368339508614E-2</v>
+      </c>
+      <c r="L173">
+        <v>7.4015598181324582E-2</v>
+      </c>
+      <c r="N173">
+        <v>0.12937227557207914</v>
+      </c>
+      <c r="P173">
+        <v>0.30014367932723146</v>
+      </c>
+      <c r="R173">
+        <v>0.70721255791594251</v>
+      </c>
+      <c r="S173">
+        <v>0.25155156536508233</v>
+      </c>
+    </row>
+    <row r="174" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>0.35760334789823245</v>
+      </c>
+      <c r="D174">
+        <v>0.46905913150231526</v>
+      </c>
+      <c r="F174">
+        <v>0.35742645047304172</v>
+      </c>
+      <c r="H174">
+        <v>0.64109708037043156</v>
+      </c>
+      <c r="J174">
+        <v>2.8782251652401628E-2</v>
+      </c>
+      <c r="L174">
+        <v>6.7907799813297948E-2</v>
+      </c>
+      <c r="N174">
+        <v>7.9416538181899601E-2</v>
+      </c>
+      <c r="P174">
+        <v>0.43144241432102798</v>
+      </c>
+      <c r="R174">
+        <v>0.47127555218271128</v>
+      </c>
+      <c r="S174">
+        <v>0.11946819639235148</v>
+      </c>
+    </row>
+    <row r="175" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>0.26232444120573239</v>
+      </c>
+      <c r="D175">
+        <v>0.16558912285299313</v>
+      </c>
+      <c r="F175">
+        <v>0.4468621657060628</v>
+      </c>
+      <c r="H175">
+        <v>0.62458922138571915</v>
+      </c>
+      <c r="J175">
+        <v>4.109139614379715E-2</v>
+      </c>
+      <c r="L175">
+        <v>0.20368122605031846</v>
+      </c>
+      <c r="N175">
+        <v>0.31574867007885615</v>
+      </c>
+      <c r="P175">
+        <v>0.55052725837555516</v>
+      </c>
+      <c r="R175">
+        <v>0.46378597392023252</v>
+      </c>
+      <c r="S175">
+        <v>0.18743956749545793</v>
+      </c>
+    </row>
+    <row r="176" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>0.32926653992955707</v>
+      </c>
+      <c r="D176">
+        <v>0.17036323645029741</v>
+      </c>
+      <c r="F176">
+        <v>0.50603759472318244</v>
+      </c>
+      <c r="H176">
+        <v>0.51601472675526827</v>
+      </c>
+      <c r="J176">
+        <v>0.10617913866423573</v>
+      </c>
+      <c r="L176">
+        <v>0.21252774029292062</v>
+      </c>
+      <c r="N176">
+        <v>0.36093493141145877</v>
+      </c>
+      <c r="P176">
+        <v>0.50118671736574905</v>
+      </c>
+      <c r="R176">
+        <v>0.3254748060999465</v>
+      </c>
+      <c r="S176">
+        <v>0.38106924987536778</v>
+      </c>
+    </row>
+    <row r="177" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>0.83993254168013898</v>
+      </c>
+      <c r="D177">
+        <v>0.25374702946917932</v>
+      </c>
+      <c r="F177">
+        <v>0.54417858370034222</v>
+      </c>
+      <c r="H177">
+        <v>0.82862386446802438</v>
+      </c>
+      <c r="J177">
+        <v>0.39507115653200603</v>
+      </c>
+      <c r="L177">
+        <v>0.38533058537055487</v>
+      </c>
+      <c r="N177">
+        <v>0.40651718609893178</v>
+      </c>
+      <c r="P177">
+        <v>0.68276710969668442</v>
+      </c>
+      <c r="R177">
+        <v>0.70887550313883929</v>
+      </c>
+      <c r="S177">
+        <v>0.46101173286706254</v>
+      </c>
+    </row>
+    <row r="178" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>0.71109603388763931</v>
+      </c>
+      <c r="D178">
+        <v>0.31893487155409184</v>
+      </c>
+      <c r="F178">
+        <v>0.31239519753169526</v>
+      </c>
+      <c r="H178">
+        <v>0.55920017335941208</v>
+      </c>
+      <c r="J178">
+        <v>0.25473771650577909</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0.23700191417677799</v>
+      </c>
+      <c r="P178">
+        <v>0.31983778512720462</v>
+      </c>
+      <c r="R178">
+        <v>0.64150719493130415</v>
+      </c>
+      <c r="S178">
+        <v>0.15831944566266418</v>
+      </c>
+    </row>
+    <row r="179" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>0.65477867322411221</v>
+      </c>
+      <c r="D179">
+        <v>0.30343080856082966</v>
+      </c>
+      <c r="F179">
+        <v>0.29899891967224351</v>
+      </c>
+      <c r="H179">
+        <v>0.34449160091235992</v>
+      </c>
+      <c r="J179">
+        <v>0.26156920460319932</v>
+      </c>
+      <c r="L179">
+        <v>1.5763921616128856E-2</v>
+      </c>
+      <c r="N179">
+        <v>0.24411589959885335</v>
+      </c>
+      <c r="P179">
+        <v>0.258311108068766</v>
+      </c>
+      <c r="R179">
+        <v>0.67632379643501384</v>
+      </c>
+      <c r="S179">
+        <v>5.6232332779576844E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>0.57784358338293407</v>
+      </c>
+      <c r="D180">
+        <v>0.31858588465380516</v>
+      </c>
+      <c r="F180">
+        <v>0.92041530388496184</v>
+      </c>
+      <c r="H180">
+        <v>0.41474867759701245</v>
+      </c>
+      <c r="J180">
+        <v>0.33695381201425101</v>
+      </c>
+      <c r="L180">
+        <v>0.40373231017175004</v>
+      </c>
+      <c r="N180">
+        <v>0.8290474836159043</v>
+      </c>
+      <c r="P180">
+        <v>0.30779993925637217</v>
+      </c>
+      <c r="R180">
+        <v>0.40391884228951608</v>
+      </c>
+      <c r="S180">
+        <v>5.4072369194906156E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>0.42346299288236966</v>
+      </c>
+      <c r="D181">
+        <v>0.18013558487009754</v>
+      </c>
+      <c r="F181">
+        <v>0.27775208860108441</v>
+      </c>
+      <c r="H181">
+        <v>0.4279698452157184</v>
+      </c>
+      <c r="J181">
+        <v>0.62617545740821856</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0.18566526893868598</v>
+      </c>
+      <c r="P181">
+        <v>0.28800171494787358</v>
+      </c>
+      <c r="R181">
+        <v>0.68675692872609639</v>
+      </c>
+      <c r="S181">
+        <v>0.25065770211474475</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>